--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="284">
   <si>
     <t>id</t>
   </si>
@@ -1030,6 +1030,127 @@
   </si>
   <si>
     <t>Sat Dec 12 06:59:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ini loh Mugwort yang lagi jadi holy grail-nya sobat tiktok sekalian karena emang hasilnya sebagus itu di muka :')
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #mugwort https://t.co/kArzlIgUUJ</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 05:13:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Nilai aja yang tinggi nggak ada yang masuk di otak 
+#belajaronline</t>
+  </si>
+  <si>
+    <t>AbdSalam24</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 01:39:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yuk join ke Groupnya untuk informasi setiap minggunya di https://t.co/xjVIJXwfwr
+Bonjour Prancis
+One Third Consulting &amp;amp; Abroad
+#BonjourPrancis #lesbahasaprancis #konsultasipendidikan #belajaronline #beasiswa #beasiswaprancis #konsultasigratis #beasiswaeropa #bahasaprancis https://t.co/KZPrhCbrAs</t>
+  </si>
+  <si>
+    <t>BonjourPrancis</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 05:40:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ingat lagu ini? 
+.
+Sc twitter @tvindonesiawkwk
+.
+#kampuscenter #workshoplulusptn #PJJ #belajaronline #sma #kampus #pelajar #ltmpt #kuliah #UTBK #SBMPTN #snmptn2020  #ltmpt2020 #ltmpt #sbmptn2020 #utbk2020 #utbk #masukkampus #kampusindonesia https://t.co/v8g762UPK5</t>
+  </si>
+  <si>
+    <t>kampuscenter</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 04:35:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hari ini di kelas Jena kita membahas soal ujian minggu kemaren😁 Udah pada jago nih temen-temen, jangan lupa kudu PD ya buat sprechen nyaa👩‍💻👨‍💻
+#kursusbahasa #kursusonline #belajarjerman #belajaronline #ujian https://t.co/Wla9l8laOD</t>
+  </si>
+  <si>
+    <t>jermanstudiere</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 15:02:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Masih susah jamanku ya...
+.
+Sc: unknown (yang tau kasih tau bro)
+.
+.
+Reposted from @1cak
+.
+#workshoplulusptn #kampus #kampuscenter #belajaronline #sma #kampus #pelajar #ltmpt #kuliah #UTBK #SNMPTN #SBMPTN #snmptn2020  #ltmpt2020 #ltmpt #sbmptn2020 #utbk2020 #utbk #masukkampus https://t.co/HtJ87PPW5j</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 07:41:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terima kasih, suhu~ @MelissaSunjaya 
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/gTFH9khSL7</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:42:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ya, gimana ya. Aduh mba Mel, aku bingung menjelaskannya~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/jYQwJNvBJr</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:41:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Iya plissss pulsa internet sama subscribe layanan streaming-nya sekalian~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/d0b1vfWkvc</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:40:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ga lengkap kalo ga lucu-lucuan, ya kan?!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/vI793G1wc6</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:39:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pas banget buat sobi twitter yang hobinya 2 a.m thoughts :")
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/nH1IVEfeHk</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:38:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yang udah dapet jadwal tuker kado akhir tahun, sini dulu yuk!
+Ada rekomendasi kado paling 'sumpah ga ngerti lagi' dari Melissa Sunjaya biar momen tuker kado kamu lebih asik, lop.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisan https://t.co/od6zPaYitb</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:36:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau tahu cara praktis dan murah untuk Pembelajaran Jarak Jauh (PJJ)?👩‍💻
+Pasti mau kan... Saatnya kamu tinggalkan cara manual untuk mengatur jadwal kelas dan meeting secara virtual 📆.
+Solusinya, pakai https://t.co/1rIQ8ab0xT.
+#belajaronline 
+#fingerspot https://t.co/SlWG2pIvm4</t>
+  </si>
+  <si>
+    <t>Bambang90500845</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:48:27 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1394,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,6 +3063,216 @@
         <v>222</v>
       </c>
     </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1.3394385334260449E+18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>253</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1.339384794988257E+18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1.339082840617599E+18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>258</v>
+      </c>
+      <c r="C113" t="s">
+        <v>259</v>
+      </c>
+      <c r="D113" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1.3390666690968251E+18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>261</v>
+      </c>
+      <c r="C114" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1.3388619395862981E+18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" t="s">
+        <v>265</v>
+      </c>
+      <c r="D115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1.338750899888374E+18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>267</v>
+      </c>
+      <c r="C116" t="s">
+        <v>262</v>
+      </c>
+      <c r="D116" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1.338721025832362E+18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>269</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1.338720825596236E+18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1.3387206031891251E+18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1.3387202467907169E+18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>275</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1.338720054427337E+18</v>
+      </c>
+      <c r="B121" t="s">
+        <v>277</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1.3387195954236211E+18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1.338692370167042E+18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>281</v>
+      </c>
+      <c r="C123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1.3384047881746061E+18</v>
+      </c>
+      <c r="B124" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1.338391443543532E+18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="308">
   <si>
     <t>id</t>
   </si>
@@ -1151,6 +1151,98 @@
   </si>
   <si>
     <t>Tue Dec 15 03:48:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yuk terus doakan adik-adik kita agar bisa meraih cita mereka ya!⁣
+⁣
+https://t.co/mzQJg8pbiY ⁣
+#belajaronline #pjj #belajar #dirumahaja</t>
+  </si>
+  <si>
+    <t>hum_initiative</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 04:49:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terakhir nih! Cuci tangan yang bersih. Inget kan koreografinya?
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #covid19 https://t.co/toaXphA9io</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:45:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Abis dibuka, sampahnya juga langsung dibuang di luar ya. Jangan lupa semprot pake disinfektan biar virusnya hempaaassss~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #COVID19 https://t.co/kFcqNsSqIT</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:44:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>LDR sama mas kurirnya dulu ya, biar tetap patuh sama protokol kesehatan. Abis itu, buka paketnya di luar rumah agar supaya tetangga bertanya-tanya. Canda tetangga.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #COVID19 https://t.co/3M7yROzgLC</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:38:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>PAKEEET!
+Santai, simak dulu tips aman terima paket di masa pandemi ini biar ga maen mashoookkk aja paketnya.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #COVID19 https://t.co/WVbzFqlm4Z</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:35:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sangat bersyukur bisa langsung belajar dari para ahlinya. 🙏🏻
+"Keep moving forward!"
+#belajar #pengembangandiri #webinar #belajaronline #mentor #lifelonglearning</t>
+  </si>
+  <si>
+    <t>UKiswanti</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 13:12:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dibuka Pendaftaran Angkatan Ke-5 Program Reguler Tarbiyah Sunnah Learning
+🌿Saatnya optimalkan belajar ilmu syari dari dasar secara bertahap, terstruktur dan wujudkan hari-hari lebih bermanfaat serta bermakna.
+#belajar #belajarsunnah #belajaronline #kajiansunnah #TSL https://t.co/6KYCvnsdni</t>
+  </si>
+  <si>
+    <t>salamTSL</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 07:40:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Halo halo
+Ada yang pernah belajar belum tentang Logaritma? Yuk merapat, kita bahas soal yang paling mendasar dulu
+https://t.co/77aL6p6CQk
+#matematika #matematikasma #matematikadasar #belajaronline</t>
+  </si>
+  <si>
+    <t>frendysanusi_</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 05:20:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat berakhir pekan bersama keluarga tercinta!😊💛
+#Vyneapple #fun #better #funlearning #family #keluarga #studygram #belajar #belajaronline #infoparenting #parenthood #parenting #parentingtips #aplikasiandroid #aplikasiios #pendidikan #anakpintar #edukasianak #quote https://t.co/ag6wStH8p3</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 04:55:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Gong Yo naek perahu
+Yok, masih ada waktu tau!
+Dapetin gift set cantik banget dari @mytulisan yang gak boleh kalian lewatin. 
+Cek Instagram @kelaskitadotcom sekarang!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #giveaway #tulisan https://t.co/HdjlovNxsM</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 05:18:04 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1515,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,6 +3365,174 @@
         <v>234</v>
       </c>
     </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1.340882051587744E+18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" t="s">
+        <v>285</v>
+      </c>
+      <c r="D126" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1.3405487812347369E+18</v>
+      </c>
+      <c r="B127" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1.3405485299205161E+18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1.340546976627061E+18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1.3405463890470049E+18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>293</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1.3402839072084869E+18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>295</v>
+      </c>
+      <c r="C131" t="s">
+        <v>296</v>
+      </c>
+      <c r="D131" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1.340200372686602E+18</v>
+      </c>
+      <c r="B132" t="s">
+        <v>298</v>
+      </c>
+      <c r="C132" t="s">
+        <v>299</v>
+      </c>
+      <c r="D132" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1.3401651181060301E+18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>301</v>
+      </c>
+      <c r="C133" t="s">
+        <v>302</v>
+      </c>
+      <c r="D133" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1.3401588752200791E+18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>304</v>
+      </c>
+      <c r="C134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1.3398020885581171E+18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>306</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1.3394385334260449E+18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1.339384794988257E+18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" t="s">
+        <v>256</v>
+      </c>
+      <c r="D137" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -1243,6 +1243,73 @@
   </si>
   <si>
     <t>Fri Dec 18 05:18:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yang lagi Headset Bass tapi murah spesial buat kamu 25ribu aja... Tidak bagus duit kembali full
+#original #newnormal #belajaronline #headset https://t.co/Kv3T05uz5v</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 15:07:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kamu bisa belajar hingga 14 sesi kelas online gratis di Kelas Pintar loh!
+#belajaronline #bimbinganbelajar #belajardirumah #bimbelterbaik #kelaspintarindonesia https://t.co/CP0jnmGbZw</t>
+  </si>
+  <si>
+    <t>kelaspintar_id</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 09:01:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat Hari Natal bagi semua yang merayakan!
+We wish you a wonderful christmast in every way🎄
+#Vyneapple #funlearning #keluarga #belajaronline #infoparenting #parenthood #parenting #parentingtips #edukasianak #merrychristmas #Christmas https://t.co/ys0Qsj7K5A</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 04:33:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat Hari Natal buat yang merayakan!
+Selamat tanggal merah buat yang liburan!
+Yok bahagia yok! Tahunnya bentar lagi ganti, nih.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #SelamatHariNatal #MerryChristmas2020 https://t.co/AwAZ4Tjz5S</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 03:00:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Di hari yang spesial ini, Kelaskita mau ngumumin siapa aja sih pemenang giveaway bingkisan cantik dari @mytulisan?
+Mampir ke Instagram @kelaskitadotcom, ya!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja  #giveaway #tulisan https://t.co/vUKlKwY6xC</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 08:13:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Rutinitas tiap hari
+#Belajaronline #pandemi #dirumahaja https://t.co/i4vf1xkGR8</t>
+  </si>
+  <si>
+    <t>itsnurmi</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 06:20:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yak abis ngucapin selamat hari Ibu, jangan lupa dibantu kerjaan Ibunya. Konteeeennn terosssss~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #SelamatHariIbu</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:09:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat Hari Ibu, Bunda, Mama, Mami, Umi, Emak, dan semua Ibu yang sudah berjuang sekuat ini.
+Terima kasih cintaku sepanjang masa~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #SelamatHariIbu https://t.co/4CQOub0r2j</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:07:59 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1607,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,6 +3600,132 @@
         <v>257</v>
       </c>
     </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1.3424870312728451E+18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>308</v>
+      </c>
+      <c r="C138" t="s">
+        <v>169</v>
+      </c>
+      <c r="D138" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1.342395076568363E+18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>310</v>
+      </c>
+      <c r="C139" t="s">
+        <v>311</v>
+      </c>
+      <c r="D139" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1.3423276943614159E+18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>313</v>
+      </c>
+      <c r="C140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D140" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1.342304066517524E+18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1.3412958325076659E+18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>317</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1.3412672677120251E+18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>319</v>
+      </c>
+      <c r="C143" t="s">
+        <v>320</v>
+      </c>
+      <c r="D143" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1.3412192956158851E+18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1.3412189007598589E+18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>324</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1.340882051587744E+18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" t="s">
+        <v>285</v>
+      </c>
+      <c r="D146" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -1310,6 +1310,46 @@
   </si>
   <si>
     <t>Tue Dec 22 03:07:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hallo sobat Homelab
+Yuk kunjungi website Homelab di https://t.co/vKyBCBHC3d, lalu subscribe email kamu! Dapatkan poin gratis! Sebesar 25 poin! Berlaku sampai 8 Januari 2021 loh. Tunggu info menarik dari Homelab selanjutnya ya
+#homelab  #elearning #belajaronline #ilmudarimanasaja https://t.co/rJ7UG3hQte</t>
+  </si>
+  <si>
+    <t>Homelabmedia</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 04:20:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Akhirnya tiba juga. Terimakasih @ruangguru . Gift untuk Raymond sudah mendarat.
+#bahasamandarin
+#belajaronline
+#bimbelonline https://t.co/JcVxWhx5pn</t>
+  </si>
+  <si>
+    <t>Lisan68845010</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 00:55:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pelajaran terbesar dalam kehidupan diperoleh dari kegagalan. So, jangan pernah berhenti berjuang, karena terkadang kita menang, terkadang kita belajar.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #quotes https://t.co/Om62fMj9dx</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 17:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kamu yang masih melakukan ini. Tapi pengen sukses? LUPAKAN Saja
+#keripikbrownies #bronchips #produsenbronchips #snackonline #tipsbisnis #samasamabelajar #belajaronline #ebookbisnis https://t.co/J1QSRV8ssA</t>
+  </si>
+  <si>
+    <t>MRFRONIEZ</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 16:58:33 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,6 +3766,118 @@
         <v>286</v>
       </c>
     </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1.343049138179457E+18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" t="s">
+        <v>327</v>
+      </c>
+      <c r="D147" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1.342997476274401E+18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>329</v>
+      </c>
+      <c r="C148" t="s">
+        <v>330</v>
+      </c>
+      <c r="D148" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1.342877838102442E+18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1.3428774725101161E+18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" t="s">
+        <v>335</v>
+      </c>
+      <c r="D150" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1.3424870312728451E+18</v>
+      </c>
+      <c r="B151" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1.342395076568363E+18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1.3423276943614159E+18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>313</v>
+      </c>
+      <c r="C153" t="s">
+        <v>92</v>
+      </c>
+      <c r="D153" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1.342304066517524E+18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="386">
   <si>
     <t>id</t>
   </si>
@@ -1350,6 +1350,202 @@
   </si>
   <si>
     <t>Sat Dec 26 16:58:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yuk, belajar trigonometri dulu! Udah hapal rumus ini belum?
+#belajaronline #rumustrigonometri #matematikasma #infosma #kelaspintarindonesia https://t.co/zzHXMUJ21S</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 13:01:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pernah diserempet Brompton?
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/krYEvu7LCL</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:09:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dua tren jagoan yang masih hits sampe sekarang~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/GMfMUGS7J4</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:09:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>ke dapur ngocok dalgona
+balik ke kamar poto-poto
+gitu aja terus kannnnn~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/IBKEUsEXaa</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:07:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sebelum tahun baru abis, mending kita throwback dulu nih apa aja sih tren yang pernah hits di tahun yang penuh liku-liku ini :')
+Cekidot!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/DPmOQqA4Dh</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:06:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>PROMO 2021
+*Wijaya Edukasi*
+⭐ Paket 1: 5 × Pertemuan (FREE 1 Pertemuan)
+⭐ Paket 2: 10 × Pertemuan (FREE 2 Pertemuan)
+.
+. Ps : Kuota terbatas. Bisa untuk semua matapelajaran.
+.
+Yuk persiapkan diri untuk semester selanjutnya. Tetap jaga kesehatan❤️
+.
+#lesprivat #belajaronline https://t.co/pNsmyrUWEv</t>
+  </si>
+  <si>
+    <t>perempuanmungi1</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 04:25:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Doakan mereka semoga selalu sehat dan bahagia ya, Sahabat Inisiator. ⁣
+⁣
+Kamu juga tetap semangat ya, yuk sambut tahun baru dengan #semangatbaru untuk lebih bahagia dan optimis lagi di tahun depan, ya!! 💪😍⁣
+⁣
+https://t.co/mzQJg8pbiY ⁣⁣⁣⁣
+#home #rbo #belajaronline #pjj</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 03:49:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terima kasih ya, Sahabat Inisiator! Dukunganmu untuk siapkan rumah belajar bagi mereka yang membutuhkan begitu bermanfaat di masa pandemi ini. ⁣⁣
+⁣⁣
+https://t.co/mzQJg8pbiY ⁣⁣
+#home #rbo #belajaronline #pjj #dirumahaja #sekolah #Liburan #anakindonesia #children #tips</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 03:48:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Teruslah berinovasi kawan #berinovasi #inovasiteknologi #belajaronline #aiskauniversity #universitasaisyiyahsurakarta @ Universitas 'Aisyiyah Surakarta https://t.co/tUOmwdTAq4</t>
+  </si>
+  <si>
+    <t>aiskauniversity</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 01:42:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Saya Ga Perlu Asuransi, Yang Penting Investasi Aja
+#tiktok #belajaronline #asuransikesehatan #asuransi #samasamaaman #IndraHadiwidjaja https://t.co/f4houdaHyI</t>
+  </si>
+  <si>
+    <t>IndraHW</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 11:06:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Walau kamu lebih sering di rumah aja, harus tetap produktif loh ya!
+#belajaronline #pendidikankarakter #tipsproduktif #semangatbelajar #kelaspintarindonesia https://t.co/G9bu5qY1vR</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 11:01:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>sudah menjadi kebutuhan masyarakat tak terkecuali pekerja kantor dan pelajar menggunakan aplikasi meeting online guna menunjang proses diskusi. aplikasi ini dapat digunakan untuk kegiatan belajar-mengajar, rapat hingga jual beli.
+#belajaronline #belajarseru #meetingonline https://t.co/wBFQ2gt4LI</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 10:00:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Biar tetap semangat belajar dan ngurangin capek, belajar pake GURU yuk!
+#belajaronline #kelasonline #pjj #pjjonline #kelaspintarindonesia https://t.co/aAIMF1EQYi</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 07:01:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Serena Williams harus istirahat dulu tahun ini karena Wimbledon diundur tahun depan. Yang nungguin Jojo maen badminton juga sabar ya hyung~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #Kaleidoskop2020 #Welcome2021 https://t.co/MG5ewCbi2h</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 05:05:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Acara tahunan buat sobat developer sekalian juga harus batal. Gak cuma itu, Summer Olympics yang diadain di Jepang juga diundur tahun depan :'(
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #Kaleidoskop2020 #Welcome2021 https://t.co/FJXNFfspmS</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 05:01:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pantes tongkrongan sepi, ga ada yang nonton bola. Tapi tenang, diundur taun depan kok.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #Kaleidoskop2020 #Welcome2021 https://t.co/paKLmzxQnw</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 04:59:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selain batal nonton Raisa, ternyata banyak juga acara yang batal di tahun 2020 ini.
+Simak yuk!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #Kaleidoskop2020 #Welcome2021 https://t.co/Q6gsJVjbYV</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 04:58:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Rockschool Learning Platform
+Berisi semua materi lagu dari debut - grade 8 dan sangat membantu dalam pengajaran online 
+#belajardirumah #belajarmusik #belajargitar #belajaronline #rockschool #rslawards https://t.co/JERt8RxGP8</t>
+  </si>
+  <si>
+    <t>uda_rulli</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 02:27:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Doakan Dikel &amp;amp; adik yatim duafa lainnya juga agar mereka bisa menggapai mimpi-mimpi mereka ya, Sahabat Inisiator! Amin.. ⁣
+⁣
+https://t.co/mzQJg8pbiY ⁣
+#anakindonesia #citacita #Mimpi #dream #children #future #yatimduafa #pjj #rumahbelajaronline #belajaronline #padang #story</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 11:41:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pemkot Metro akan menunda kegiatan belajar mengajar (KBM) secara tatap muka atau luring hingga Februari 2021. 
+#belajar #belajaronline #daring #kbm #tatapmuka #lampung #lampostco
+https://t.co/YOQIcxlQBN</t>
+  </si>
+  <si>
+    <t>lampostco</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 11:21:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>PART 2!! 🔥🔥
+Maapin mimin ya jarang aktif. Yukk semangat terus belajarnya 💪💪
+Good luck ☺
+.
+.
+.
+#matematika #matematikaseru #matematikamudah #hidupkanmatematika #matematikaindonesia #Mathematics #belajardarirumah #belajar #belajaronline #sma #smp #edukasi #pendidikan https://t.co/ZuYmA9eG8y</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 09:23:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sisa 2 hari lagi buat dapetin bingkisan cantik dari @parangkencana.
+Yuk, cek Instagram @kelaskitadotcom sekarang banget!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #ikancupang #giveaway #parangkencana https://t.co/1GXkCst5cv</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 05:00:30 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1714,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,6 +4074,342 @@
         <v>316</v>
       </c>
     </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1.3442674276312719E+18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" t="s">
+        <v>311</v>
+      </c>
+      <c r="D155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1.3441486577260989E+18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1.3441485272832451E+18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1.3441481908749271E+18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>343</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1.3441478754758001E+18</v>
+      </c>
+      <c r="B159" t="s">
+        <v>345</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1.344137499652735E+18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>347</v>
+      </c>
+      <c r="C160" t="s">
+        <v>348</v>
+      </c>
+      <c r="D160" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1.3441283984408901E+18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" t="s">
+        <v>285</v>
+      </c>
+      <c r="D161" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1.34412810373648E+18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>352</v>
+      </c>
+      <c r="C162" t="s">
+        <v>285</v>
+      </c>
+      <c r="D162" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1.3440965737651279E+18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>354</v>
+      </c>
+      <c r="C163" t="s">
+        <v>355</v>
+      </c>
+      <c r="D163" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1.3438760384897469E+18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>357</v>
+      </c>
+      <c r="C164" t="s">
+        <v>358</v>
+      </c>
+      <c r="D164" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1.3438748543076931E+18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>360</v>
+      </c>
+      <c r="C165" t="s">
+        <v>311</v>
+      </c>
+      <c r="D165" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1.343859500466356E+18</v>
+      </c>
+      <c r="B166" t="s">
+        <v>362</v>
+      </c>
+      <c r="C166" t="s">
+        <v>77</v>
+      </c>
+      <c r="D166" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1.3438144651171551E+18</v>
+      </c>
+      <c r="B167" t="s">
+        <v>364</v>
+      </c>
+      <c r="C167" t="s">
+        <v>311</v>
+      </c>
+      <c r="D167" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1.3437853066930711E+18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>366</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1.3437840989180639E+18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>368</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1.3437837069268831E+18</v>
+      </c>
+      <c r="B170" t="s">
+        <v>370</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1.343783356664693E+18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>372</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1.3437453213864261E+18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>374</v>
+      </c>
+      <c r="C172" t="s">
+        <v>375</v>
+      </c>
+      <c r="D172" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1.3435225449056671E+18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>377</v>
+      </c>
+      <c r="C173" t="s">
+        <v>285</v>
+      </c>
+      <c r="D173" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1.343517303497961E+18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>379</v>
+      </c>
+      <c r="C174" t="s">
+        <v>380</v>
+      </c>
+      <c r="D174" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1.3434877533301471E+18</v>
+      </c>
+      <c r="B175" t="s">
+        <v>382</v>
+      </c>
+      <c r="C175" t="s">
+        <v>148</v>
+      </c>
+      <c r="D175" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1.3434215437710751E+18</v>
+      </c>
+      <c r="B176" t="s">
+        <v>384</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.343049138179457E+18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>326</v>
+      </c>
+      <c r="C177" t="s">
+        <v>327</v>
+      </c>
+      <c r="D177" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1.342997476274401E+18</v>
+      </c>
+      <c r="B178" t="s">
+        <v>329</v>
+      </c>
+      <c r="C178" t="s">
+        <v>330</v>
+      </c>
+      <c r="D178" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -1546,6 +1546,91 @@
   </si>
   <si>
     <t>Mon Dec 28 05:00:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ada yang suka nonton Jdrama? Kali ini kita bakal main tebak-tebakan tentang wajah aktris atau aktor Jepang dari potongan fotonya aja nih!
+#belajarbahasajepang #bahasajepang #belajaronline #nihongo #edukasi
+#belajarbahasajepang #bahasajepang #belajaronline #nihongo #edukasi https://t.co/C4SLoRFGzk</t>
+  </si>
+  <si>
+    <t>AkiNoSoraID</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 12:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk..yuk yang mau belajar public speaking bisa subs dan tonton videonya di link berikut https://t.co/oVBKsAw2bF 
+#publicspeaking #belajaronline https://t.co/fesKWWClOg</t>
+  </si>
+  <si>
+    <t>andigarmadi</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 03:54:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>PART 2!! 🔥🔥
+Maafin mimin ya jarang aktif.
+Yukk tetap semangat belajarnya di tahun 2021 ini!! 💪🏻
+.
+.
+.
+#matematika #matematikaseru #matematikamudah #hidupkanmatematika #matematikaindonesia #Mathematics #belajardarirumah #belajar #belajaronline #sma #smp #edukasi #pendidikan https://t.co/2aXCAAXjXW</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 13:46:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kaedah melalui alam maya ini merupakan langkah yang paling selamat pada waktu ini.
+.
+#KYPJ #OnlineStudy #BelajarOnline #JomSambungBelajar https://t.co/srVJYdCj18</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 10:19:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nungguin ya?
+Langsung cek Instagram @kelaskitadotcom sekarang!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/haf3xgmDVM</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 08:09:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Sekolah 2021 - Login https://t.co/AwpNajYYPQ dan https://t.co/RNbtQltvsb Masuk Sekolah Tatap Muka SD Ditunda
+#bdr #BJJ #TVRI #BelajarDariRumah #kemendikbud #nadiemmakarim #belajaronline
+ https://t.co/7gsPZf0XvP</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 07:26:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>TERAKHIR YANG PALING PENTING HARUS BAHAGIA TERUS LOP~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/9G1d5P91Ac</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 06:37:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>harus fokus dan jangan lupa bikin timeline-nya!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #Welcome2021 https://t.co/NVRYCdaiZy</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 06:36:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>evaluasi dulu, planning kemudian.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/g1B0wB6jXv</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 06:33:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Punya rencana nikah sama Siwon taun depan boleh, tapi coba simak dulu tips dari Kelaskita biar rencana kamu matang alias sadar chingu :')
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/x1K4iPJAw3</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 06:28:55 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1910,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H174" sqref="H174"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K177" sqref="K177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,6 +4495,272 @@
         <v>331</v>
       </c>
     </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1.345339053508415E+18</v>
+      </c>
+      <c r="B179" t="s">
+        <v>386</v>
+      </c>
+      <c r="C179" t="s">
+        <v>387</v>
+      </c>
+      <c r="D179" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1.345216933696705E+18</v>
+      </c>
+      <c r="B180" t="s">
+        <v>389</v>
+      </c>
+      <c r="C180" t="s">
+        <v>390</v>
+      </c>
+      <c r="D180" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1.3450035121874209E+18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>392</v>
+      </c>
+      <c r="C181" t="s">
+        <v>148</v>
+      </c>
+      <c r="D181" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1.3449514581778429E+18</v>
+      </c>
+      <c r="B182" t="s">
+        <v>394</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1.344918775758348E+18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>396</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.344545419892724E+18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>398</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1.3445331215012859E+18</v>
+      </c>
+      <c r="B185" t="s">
+        <v>400</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1.3445328009390159E+18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>402</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1.3445320715579149E+18</v>
+      </c>
+      <c r="B187" t="s">
+        <v>404</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1.3445309598577211E+18</v>
+      </c>
+      <c r="B188" t="s">
+        <v>406</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1.3442674276312719E+18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>337</v>
+      </c>
+      <c r="C189" t="s">
+        <v>311</v>
+      </c>
+      <c r="D189" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1.3441486577260989E+18</v>
+      </c>
+      <c r="B190" t="s">
+        <v>339</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1.3441485272832451E+18</v>
+      </c>
+      <c r="B191" t="s">
+        <v>341</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1.3441481908749271E+18</v>
+      </c>
+      <c r="B192" t="s">
+        <v>343</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1.3441478754758001E+18</v>
+      </c>
+      <c r="B193" t="s">
+        <v>345</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1.344137499652735E+18</v>
+      </c>
+      <c r="B194" t="s">
+        <v>347</v>
+      </c>
+      <c r="C194" t="s">
+        <v>348</v>
+      </c>
+      <c r="D194" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1.3441283984408901E+18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>350</v>
+      </c>
+      <c r="C195" t="s">
+        <v>285</v>
+      </c>
+      <c r="D195" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1.34412810373648E+18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>352</v>
+      </c>
+      <c r="C196" t="s">
+        <v>285</v>
+      </c>
+      <c r="D196" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1.3440965737651279E+18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>354</v>
+      </c>
+      <c r="C197" t="s">
+        <v>355</v>
+      </c>
+      <c r="D197" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="442">
   <si>
     <t>id</t>
   </si>
@@ -1631,6 +1631,139 @@
   </si>
   <si>
     <t>Thu Dec 31 06:28:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tahun baru masih anget..5 Januari 2021. Persiapan Daring lg.
+#newyear
+#belajaronline
+#menantivaksin
+#covid19
+#bekasi</t>
+  </si>
+  <si>
+    <t>dannyurban</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 10:16:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Last but not least, asik!
+Terus perluas jaringan dan kenal sama orang baru biar tau kisah-kisah keberhasilan mereka. Et, tapi tetap harus optimis juga sama diri sendiri.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/t9tDGJLoCe</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 05:04:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Emang butuh pede yang besar buat ngubah sesuatu dan belajar hal baru, tapi ya harus pede! 
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/55WbqzVRLF</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 05:00:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Harus berani cari tantangan baru, ya namanya juga keluar zona nyaman~
+Evaluasi juga jangan ditinggalin.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/8O6hMK65QF</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 04:59:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mau ngumpulin orang-orang yang lagi bangun niat buat keluar dari zona nyaman, nih!
+Simak tipsnya yuk!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/FZfGa6PoVy</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 04:58:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Promo layar Interaktif Flat Panel ukuran layar lebar 65 inch ... Hub. 081386785850 @mandiriartha #korporasijabar #mandiriarthasolusi  #interaktifflatpanel #pembelajaranjarakjauh #belajaronline #bekerjajarakjauh #wfh https://t.co/rUQ11W3LWv</t>
+  </si>
+  <si>
+    <t>echo_kilo_oscar</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 00:12:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pergulatan peronlinenan ummat dimulai..
+kau membentukku semakin tangguh..
+semangat berproses kembali dan semoga cerita yang kita gores lebih berwarna nan bermakna..
+#seninvibbes #postivvibes #semangatsenin #belajaronline #dirumahsaja https://t.co/mUQ8gsnUDC</t>
+  </si>
+  <si>
+    <t>sofi_ksmnrsh</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 16:03:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah pusat mengizinkan pemerintah daerah untuk melaksanakan pembelajaran tatap muka (PTM).
+#BelajarDariRumah #belajaronline #daring #KBM #UPI #IKAUPI #lampung #lampostco
+https://t.co/rb8U9YjcY0</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 13:37:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo sobat Homelab
+Jadikan kegagalan itu sebuah bukti kamu pernah berjuang dan jangan berhenti disituasi itu tapi selesaikan perjuanganmu sampai tuntas dan berhasil!
+#homelab #askhomelab #belajarbarengberkolaborasibareng #belajardimanasaja #elearning #belajaronline https://t.co/4LT3plS06D</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 12:13:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Kabupaten Pesawaran, memutuskan kegiatan belajar mengajar (KBM) tatap muka di Bumi Andan Jejama diundur sampai waktu yang belum ditentukan.
+#BelajarDariRumah #belajaronline #daring #KBM #pesawaran #lampung #lampostco
+https://t.co/SQduyCyQxr</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 10:36:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Makan sekuteng di rawa-rawa
+Kelaskita dateng bawa kabar gembira!
+Akhirnya pantun go Internasional, gais!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #taugaksih https://t.co/cJ6ld6Yok4</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 07:00:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hi Fellas! Tak perlu repot-repot pergi ke lembaga kursus, Lister siap membantu Kamu jadi lebih hebat di tahun 2021. 
+#belajaronline #lister #kursusielts #kursustoelf #kursusbahasaasing #kursusbimbinganbeasiswa #listerlanguagemaster https://t.co/QeToE9CDb4</t>
+  </si>
+  <si>
+    <t>lister_id</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 04:57:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kion Kids mengandung Ion Negatif &amp;amp; FIR yang bantu jaga kesehatan mata siBuah Hati.
+#kionnanokids
+#kacamatakesehatan
+#belajaronline
+#inspiradzi
+#digitalnetworkmarketing</t>
+  </si>
+  <si>
+    <t>SusantoSane</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:44:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jadwal Baru Belajar dari Rumah TVRI untuk PAUD dan SD Kelas 1-6, Tiap Senin-Jumat Selama 30 Menit
+https://t.co/kk7OLxdr7G #JadwalBaru #BelajarDariRumah #TVRI #BelajarOnline</t>
+  </si>
+  <si>
+    <t>tribunkaltim</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 22:26:41 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K177" sqref="K177"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,6 +4894,230 @@
         <v>356</v>
       </c>
     </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1.3464000889695439E+18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>408</v>
+      </c>
+      <c r="C198" t="s">
+        <v>409</v>
+      </c>
+      <c r="D198" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1.3463216211418729E+18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>411</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1.3463206669207959E+18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>413</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1.3463203249172969E+18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>415</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1.3463200637170161E+18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>417</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1.3462482020396401E+18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>419</v>
+      </c>
+      <c r="C203" t="s">
+        <v>420</v>
+      </c>
+      <c r="D203" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1.3461249850525E+18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>422</v>
+      </c>
+      <c r="C204" t="s">
+        <v>423</v>
+      </c>
+      <c r="D204" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1.3460883879381399E+18</v>
+      </c>
+      <c r="B205" t="s">
+        <v>425</v>
+      </c>
+      <c r="C205" t="s">
+        <v>380</v>
+      </c>
+      <c r="D205" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1.346067103321739E+18</v>
+      </c>
+      <c r="B206" t="s">
+        <v>427</v>
+      </c>
+      <c r="C206" t="s">
+        <v>327</v>
+      </c>
+      <c r="D206" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1.346042820201599E+18</v>
+      </c>
+      <c r="B207" t="s">
+        <v>429</v>
+      </c>
+      <c r="C207" t="s">
+        <v>380</v>
+      </c>
+      <c r="D207" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1.345988381856076E+18</v>
+      </c>
+      <c r="B208" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1.345957551767126E+18</v>
+      </c>
+      <c r="B209" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" t="s">
+        <v>434</v>
+      </c>
+      <c r="D209" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1.345908839414071E+18</v>
+      </c>
+      <c r="B210" t="s">
+        <v>436</v>
+      </c>
+      <c r="C210" t="s">
+        <v>437</v>
+      </c>
+      <c r="D210" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1.3454967659364559E+18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>439</v>
+      </c>
+      <c r="C211" t="s">
+        <v>440</v>
+      </c>
+      <c r="D211" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1.345339053508415E+18</v>
+      </c>
+      <c r="B212" t="s">
+        <v>386</v>
+      </c>
+      <c r="C212" t="s">
+        <v>387</v>
+      </c>
+      <c r="D212" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1.345216933696705E+18</v>
+      </c>
+      <c r="B213" t="s">
+        <v>389</v>
+      </c>
+      <c r="C213" t="s">
+        <v>390</v>
+      </c>
+      <c r="D213" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="490">
   <si>
     <t>id</t>
   </si>
@@ -1764,6 +1764,180 @@
   </si>
   <si>
     <t>Sat Jan 02 22:26:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/rzzA2C1GwE
+#latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #buguru #kuis #toefl #toeic #ielts #elearning #kuis #learnfromhome #pintar #siswa #sd #smp #sma #pengetahuan #ilmu #belajardarirumah #kursus https://t.co/32helURVAu</t>
+  </si>
+  <si>
+    <t>weblatihansoal</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 13:18:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mau info lengkapnya? Silakan klik link di bawah ini ya  
+https://t.co/T1Ur2uy4nV
+.
+#dropshipper #belajaronline @ Yogya Dept Store Sukabumi https://t.co/rRZiUjMDqq</t>
+  </si>
+  <si>
+    <t>oukabrand</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 11:51:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tahun baru saatnya menambah ilmu baru atau memperdalam ilmu yg ada. Yuk, #belajardirumah bersama Akademi Penulis Buku. Kepoin jadwal Kelas Digitalnya &amp;amp; daftar pakai kode KLARA180... biar dpt diskon 😄😍😇
+#tahunbaru2021 #belajaronline #kelasdigital #belajardarirumah #5M https://t.co/hN8qNSjXRL</t>
+  </si>
+  <si>
+    <t>dwiklarasari</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 09:57:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buat yang suka motret, silakan jual fotonya di situs penyedia bank images. Jangan lupa buat yang suka jualan, monggo mulai dirintis usaha online shop-nya.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/ceVBkn4D72</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:13:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nah, ini dia kesempatan emas buat yang suka nulis!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/8LufpHP8JK</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:10:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selain tren belajar online via Zoom, usaha kuliner rumahan juga patut dicoba nih!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/nOBKmf9jSP</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:10:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buat yang suka gambar, wajib banget dicoba nih!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/23LioLB4gi</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:07:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>-THREAD-
+Udahan yuk rebahannya, katanya mau kaya raya.
+Simak nih ide bisnis online yang udah @kelaskitadotcom rangkum buat kamu!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/dNePhWovS7</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:04:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalian udah pada tahu fitur GURU belum nih?
+#belajaronline #bimbelonline #belajardirumah #pjj #kelaspintarindonesia https://t.co/cVvEOTCkr4</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:01:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mau info lengkapnya? Silakan klik link bio / di bawah ini ya  
+https://t.co/T1Ur2uy4nV
+.
+#dropshipper #belajaronline #belajarbisnis #akademibisnisonline #akademibisnisdigital #suppliertanganpertama https://t.co/24PK719LPL</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 16:42:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dampak Covid-19, Membuat Siswa Kurang Mampu Di SD Negeri 3 Panji Kesulitan Untuk Mengikuti Belajar Daring https://t.co/W5LxpdaV81 
+#BelajarOnline #LearnfromHome #Buleleng #Berita #Opini #NusaBali</t>
+  </si>
+  <si>
+    <t>nusabalicom</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 13:51:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>✅  KOTA TANGERANG, https://t.co/WyGTDLIwxe — Dinas Pendidikan Kota Tangerang menggelar Sosialisasi Protokol Kesehatan pada Pelaksanaan Pembelajaran Jarak Jauh Semester Genap Tahun… https://t.co/Pc57w3lJXx #KotaTangerang #Pendidikan #Sekolah #BelajarOnline Selengkapnya ⬇⬇⬇ https://t.co/GI6XOWidwt</t>
+  </si>
+  <si>
+    <t>PelitaBantenCom</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 13:15:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Latihan soal + pembahasan SD - SMA 🤩
+#kejarcita #latihansoal #belajaronline https://t.co/xhGMbpBetc</t>
+  </si>
+  <si>
+    <t>kejarcitaid</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 03:08:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>⁣Mereka senang sekali mengikuti kegiatan mewarnai bersama kakak volunteer di sana sambil mengisi waktu luang di masa pandemi dengan kegiatan bermanfaat. 
+⁣https://t.co/4OTDKwKqns ⁣ ⁣
+#belajaronline #pjj  #semangatbaru2021 ⁣
+⁣sumber: https://t.co/6AZz92NWHO @home.padang https://t.co/vf1Uc9wWy1</t>
+  </si>
+  <si>
+    <t>HumanIn_Aceh</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 03:00:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Kabupaten Lampung Selatan menjadwalkan kegiatan belajar mengajar (KBM) tatap muka digelar pada 1 Februari 2021.
+#BelajarDariRumah #belajaronline #daring #KBM #lamsel #lampung #lampostco
+https://t.co/Hv41u7A8FJ</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 11:11:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Masa pandemi mengharuskan anak untuk belajar online di rumah. Hal ini terkadang membuat rasa jenuh dan malas sering muncul. #belajaronline https://t.co/scgdcCXIVp</t>
+  </si>
+  <si>
+    <t>Genpi_Co</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 10:56:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah akan memperketat penerapan PSBB di Jawa dan Bali. Ini dia nih beberapa hal yang diatur. Yukss deh terus disiplin protokol kesehatan. Jangan kasih kendor yaa! 
+#psbb #jawa #bali #workfromoffice #workfromhome #pjj #belajaronline #sekolahonline #mal #restoran https://t.co/QQp5s86hOK</t>
+  </si>
+  <si>
+    <t>lensaRTV</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 08:05:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Welcome Marshall Pandhiatama as Creative Director at @kelaskitadotcom
+Siap-siap, ya karena bakal ada sesuatu yang baru dan keren di @kelaskitadotcom.
+Stay tune!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/BmMJ6g8fzc</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 05:13:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Rangkuman IPA Kelas 9 Bab 6 Kemagnetan dan Pemanfaatannya dalam Produk Teknologi (IPA Kelas IX SMP/MTs Semester 2) 
+#PELAJAR #belajaronline #belajarjepun 
+https://t.co/z2N0AluwxI</t>
+  </si>
+  <si>
+    <t>Si_jupo</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 22:23:56 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -2128,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H236" sqref="H236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,6 +5292,356 @@
         <v>391</v>
       </c>
     </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1.3475330184291981E+18</v>
+      </c>
+      <c r="B214" t="s">
+        <v>442</v>
+      </c>
+      <c r="C214" t="s">
+        <v>443</v>
+      </c>
+      <c r="D214" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1.347511192525431E+18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>445</v>
+      </c>
+      <c r="C215" t="s">
+        <v>446</v>
+      </c>
+      <c r="D215" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1.347482458879627E+18</v>
+      </c>
+      <c r="B216" t="s">
+        <v>448</v>
+      </c>
+      <c r="C216" t="s">
+        <v>449</v>
+      </c>
+      <c r="D216" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1.3474413390261819E+18</v>
+      </c>
+      <c r="B217" t="s">
+        <v>451</v>
+      </c>
+      <c r="C217" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1.3474406306333609E+18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>453</v>
+      </c>
+      <c r="C218" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1.347440433534624E+18</v>
+      </c>
+      <c r="B219" t="s">
+        <v>455</v>
+      </c>
+      <c r="C219" t="s">
+        <v>17</v>
+      </c>
+      <c r="D219" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1.347439878250762E+18</v>
+      </c>
+      <c r="B220" t="s">
+        <v>457</v>
+      </c>
+      <c r="C220" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1.3474390984164019E+18</v>
+      </c>
+      <c r="B221" t="s">
+        <v>459</v>
+      </c>
+      <c r="C221" t="s">
+        <v>17</v>
+      </c>
+      <c r="D221" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1.3474383200334111E+18</v>
+      </c>
+      <c r="B222" t="s">
+        <v>461</v>
+      </c>
+      <c r="C222" t="s">
+        <v>311</v>
+      </c>
+      <c r="D222" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1.347221971742978E+18</v>
+      </c>
+      <c r="B223" t="s">
+        <v>463</v>
+      </c>
+      <c r="C223" t="s">
+        <v>446</v>
+      </c>
+      <c r="D223" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1.34717917144157E+18</v>
+      </c>
+      <c r="B224" t="s">
+        <v>465</v>
+      </c>
+      <c r="C224" t="s">
+        <v>466</v>
+      </c>
+      <c r="D224" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1.3471698820732969E+18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>468</v>
+      </c>
+      <c r="C225" t="s">
+        <v>469</v>
+      </c>
+      <c r="D225" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1.347017277774828E+18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>471</v>
+      </c>
+      <c r="C226" t="s">
+        <v>472</v>
+      </c>
+      <c r="D226" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1.3470152923045151E+18</v>
+      </c>
+      <c r="B227" t="s">
+        <v>474</v>
+      </c>
+      <c r="C227" t="s">
+        <v>475</v>
+      </c>
+      <c r="D227" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1.3467763925626921E+18</v>
+      </c>
+      <c r="B228" t="s">
+        <v>477</v>
+      </c>
+      <c r="C228" t="s">
+        <v>380</v>
+      </c>
+      <c r="D228" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1.346772504921088E+18</v>
+      </c>
+      <c r="B229" t="s">
+        <v>479</v>
+      </c>
+      <c r="C229" t="s">
+        <v>480</v>
+      </c>
+      <c r="D229" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1.3467296082809001E+18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>482</v>
+      </c>
+      <c r="C230" t="s">
+        <v>483</v>
+      </c>
+      <c r="D230" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1.3466864253123131E+18</v>
+      </c>
+      <c r="B231" t="s">
+        <v>485</v>
+      </c>
+      <c r="C231" t="s">
+        <v>17</v>
+      </c>
+      <c r="D231" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1.3465832379177531E+18</v>
+      </c>
+      <c r="B232" t="s">
+        <v>487</v>
+      </c>
+      <c r="C232" t="s">
+        <v>488</v>
+      </c>
+      <c r="D232" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1.3464000889695439E+18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>408</v>
+      </c>
+      <c r="C233" t="s">
+        <v>409</v>
+      </c>
+      <c r="D233" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1.3463216211418729E+18</v>
+      </c>
+      <c r="B234" t="s">
+        <v>411</v>
+      </c>
+      <c r="C234" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1.3463206669207959E+18</v>
+      </c>
+      <c r="B235" t="s">
+        <v>413</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1.3463203249172969E+18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>415</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1.3463200637170161E+18</v>
+      </c>
+      <c r="B237" t="s">
+        <v>417</v>
+      </c>
+      <c r="C237" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1.3462482020396401E+18</v>
+      </c>
+      <c r="B238" t="s">
+        <v>419</v>
+      </c>
+      <c r="C238" t="s">
+        <v>420</v>
+      </c>
+      <c r="D238" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="516">
   <si>
     <t>id</t>
   </si>
@@ -1938,6 +1938,112 @@
   </si>
   <si>
     <t>Tue Jan 05 22:23:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yang gratesss yang gratesss yang gratesss. Webinar gratis untuk memberantas tentang sekelumit sefruit TOEFL, TOEFL-ITP, Paper Based, IELTS, TOEIC dan semacamnya.
+#webinargratis #freewebinar #belajaronline
+@infomalang @KabarMLG https://t.co/j3BNirfW3e</t>
+  </si>
+  <si>
+    <t>shampoomenthol</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 14:07:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hii mahasiswa onlen, semangat dong 8 semester! #belajaronline</t>
+  </si>
+  <si>
+    <t>herbloooow</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 09:25:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kenali gaya belajar peserta didik,
+Read more...
+https://t.co/sQNS3GlUb8
+#gayabelajar #VAK #sekolah #Belajaronline</t>
+  </si>
+  <si>
+    <t>yazizabby</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 06:51:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hyang hyung hyang hyung. Liat dulu nih siapa aja yg kudu dipanggil hyung.
+Lah kok galak awokawokawok
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/qhnzLkY7Qk</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 05:14:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nah, kalau sudah lakukan hal ini, dijamin belajarmu jadi menyenangkan deh! 😉⁣⁣
+⁣⁣
+https://t.co/mzQJg8pbiY ⁣⁣
+#belajar #semangatbelajar #semangat #semangatbaru #semangatbaru2021 #ayobelajar #belajaronline #belajardirumah ⁣
+sumber: https://t.co/c9ceG0rL21</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 04:41:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/dgJVNcw7hw
+#latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #buguru #kuis #toefl #toeic #ielts #elearning #kuis #learnfromhome #pintar #siswa #sd #smp #sma #pengetahuan #ilmu #belajardarirumah #kursus https://t.co/LzZPQudHtm</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 03:11:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>alhamdulillah..
+sudah ready tidak jadi begadang 😇
+semangat menyambut hari senin, semangat belajar 🤓
+stay healty..
+stay positiv..
+stay strong..
+#WFH #SFH #dirumahaja #belajaronline #serbaonline #semangatsenin https://t.co/G4FND2t56V</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 15:07:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo sobat Homelab!
+Pernah mencari sebuah informasi namun hasil tidak sesuai dengan kata kunci?
+Kamu bisa gunakan perintah ini untuk hasil yang lebih akurat loh!
+Untuk tau cara kerja dan fungsinya cek di Instagram @Homelab.media ya!
+#homelab #kuliahonline #belajaronline #trik https://t.co/4VlkrjpNDP</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 22:52:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Malam minggu kalian ngapain guys?
+Malam minggu ini kelas Hannover ujian nihh🥰
+Waah ga kerasa ternyata udah 1 bulan aja temen-temen belajar di kelas Hannover. Udah pada jagoo nihhh buat sprechen nya👩‍💻🇩🇪
+#kursusjerman #belajarjerman #kursusonline #ujianjerman #belajaronline https://t.co/SJqU8mnRnc</t>
+  </si>
+  <si>
+    <t>studieredeutsch</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 14:42:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>KPAI : Jangan Beri Sanksi Siswa Nunggak SPP https://t.co/7eR0W1GbJ0 #kpai #sekolahonline #uangsekolah #sekolahswasta #pandemicovid19 #kemdikbud #dinaspendidikan #belajaronline #detakpos #adadetakdisetiapdetik</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 13:15:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/X6qJnDXkPE
+#latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #buguru #kuis #toefl #toeic #ielts #elearning #kuis #learnfromhome #pintar #siswa #sd #smp #sma #pengetahuan #ilmu #belajardarirumah #kursus https://t.co/IRujK71iPV</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 06:11:46 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -2302,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H236" sqref="H236"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H252" sqref="H252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5642,6 +5748,286 @@
         <v>421</v>
       </c>
     </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1.3486325544301079E+18</v>
+      </c>
+      <c r="B239" t="s">
+        <v>490</v>
+      </c>
+      <c r="C239" t="s">
+        <v>491</v>
+      </c>
+      <c r="D239" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1.3485617063566751E+18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>493</v>
+      </c>
+      <c r="C240" t="s">
+        <v>494</v>
+      </c>
+      <c r="D240" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1.3485228334255721E+18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>496</v>
+      </c>
+      <c r="C241" t="s">
+        <v>497</v>
+      </c>
+      <c r="D241" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1.3484984442272031E+18</v>
+      </c>
+      <c r="B242" t="s">
+        <v>499</v>
+      </c>
+      <c r="C242" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1.3484901732694789E+18</v>
+      </c>
+      <c r="B243" t="s">
+        <v>501</v>
+      </c>
+      <c r="C243" t="s">
+        <v>285</v>
+      </c>
+      <c r="D243" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1.3484675229666749E+18</v>
+      </c>
+      <c r="B244" t="s">
+        <v>503</v>
+      </c>
+      <c r="C244" t="s">
+        <v>443</v>
+      </c>
+      <c r="D244" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1.3482853560560389E+18</v>
+      </c>
+      <c r="B245" t="s">
+        <v>505</v>
+      </c>
+      <c r="C245" t="s">
+        <v>423</v>
+      </c>
+      <c r="D245" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1.348040030212694E+18</v>
+      </c>
+      <c r="B246" t="s">
+        <v>507</v>
+      </c>
+      <c r="C246" t="s">
+        <v>327</v>
+      </c>
+      <c r="D246" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1.347916653930025E+18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>509</v>
+      </c>
+      <c r="C247" t="s">
+        <v>510</v>
+      </c>
+      <c r="D247" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1.347894730722402E+18</v>
+      </c>
+      <c r="B248" t="s">
+        <v>512</v>
+      </c>
+      <c r="C248" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1.3477881342394611E+18</v>
+      </c>
+      <c r="B249" t="s">
+        <v>514</v>
+      </c>
+      <c r="C249" t="s">
+        <v>443</v>
+      </c>
+      <c r="D249" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1.3475330184291981E+18</v>
+      </c>
+      <c r="B250" t="s">
+        <v>442</v>
+      </c>
+      <c r="C250" t="s">
+        <v>443</v>
+      </c>
+      <c r="D250" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1.347511192525431E+18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>445</v>
+      </c>
+      <c r="C251" t="s">
+        <v>446</v>
+      </c>
+      <c r="D251" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1.347482458879627E+18</v>
+      </c>
+      <c r="B252" t="s">
+        <v>448</v>
+      </c>
+      <c r="C252" t="s">
+        <v>449</v>
+      </c>
+      <c r="D252" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1.3474413390261819E+18</v>
+      </c>
+      <c r="B253" t="s">
+        <v>451</v>
+      </c>
+      <c r="C253" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1.3474406306333609E+18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>453</v>
+      </c>
+      <c r="C254" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1.347440433534624E+18</v>
+      </c>
+      <c r="B255" t="s">
+        <v>455</v>
+      </c>
+      <c r="C255" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1.347439878250762E+18</v>
+      </c>
+      <c r="B256" t="s">
+        <v>457</v>
+      </c>
+      <c r="C256" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1.3474390984164019E+18</v>
+      </c>
+      <c r="B257" t="s">
+        <v>459</v>
+      </c>
+      <c r="C257" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1.3474383200334111E+18</v>
+      </c>
+      <c r="B258" t="s">
+        <v>461</v>
+      </c>
+      <c r="C258" t="s">
+        <v>311</v>
+      </c>
+      <c r="D258" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="549">
   <si>
     <t>id</t>
   </si>
@@ -2044,6 +2044,137 @@
   </si>
   <si>
     <t>Sat Jan 09 06:11:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk yang lagi sekolah daring, banyak tugas ataupun kurang paham materi bisa DM ya. Ini testi nilai raport #lesonline #belajaronline #daring #tugas #ulangan #jokitugas https://t.co/q0IvutsVmx</t>
+  </si>
+  <si>
+    <t>pertugasan</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 12:07:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sudah tahu belum, Parents?🤗 #theasianparentid #fyp #masteredukasi #samasamabelajar #belajaronline #kehamilan #ibu #voiceeffects 
+https://t.co/mQ9iGeoglC https://t.co/5hpnnJn5XZ</t>
+  </si>
+  <si>
+    <t>AsianParentID</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 05:00:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>"Bertindak untuk mengubah sikap" adalah pembelajaran yang tiada henti dan menjadi PR masing-masing pribadi. 😇
+#webinarciputra #ciputra #webinar #aktifbelajar #belajaronline #pengembangandiri #betterme</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 14:26:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo sobat Homelab!
+Pernahkah kamu merasa cepat bosan saat belajar?
+Berikut beberapa tipe gaya belajar yang bisa kamu coba
+Cek sekarang : https://t.co/t8TYtHZJeY
+#homelab #askhomelab #belajaronline #kuliahonline #mahasiswa #belajarbarengberkolaborasibareng #tipsdantrikhomelab https://t.co/KTm3vuRyK3</t>
+  </si>
+  <si>
+    <t>askhomelab</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 00:21:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>@infomasukPTN TEMAN TEMAN KALO ADA YANG MAU JOIN BELAJAR ONLEN BARENG KUY! 10 ORANG BISA DM AKU ATAU REP NANTI AKU KONTAK!🤩🤩 #sbmptn #belajaronline #sbmptn2021 #ltmpt</t>
+  </si>
+  <si>
+    <t>flowerinhere</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 12:02:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ketua MKKS SMP Kabupaten Pesisir Barat, Sofyan, mengatakan pendidikan tingkat SMP saat ini menerapkan KBM tatap muka.
+#sekolah #belajar #KBM #SMP #sekolahonline #daring #belajaronline #lampung #lampostco
+https://t.co/aEbWbvsGs5</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 10:57:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Udah, ya khilaf belanja pas 12.12, sekarang waktunya nabung!
+Simak nih jenis investasi buat pemula biar tabungan kamu makin banyak.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/nkyQcsrTWX</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 06:42:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>4 Hal Penting untuk Ditingkatkan pada 2021 
+@lcjgadingjaya
+@komisinasional
+#tiktok #belajaronline #upgrade #IndraHadiwidjaja #KomunitasSalesIndonesia #BanggaJadiSales #lionsclub #WeServe #307a1 https://t.co/OgF6VilrMc</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 05:57:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/k1HD705xD7
+#kegunaan #jeruk #nipis #pada #kerajinan #limbah #sisik #ikan #adalah #menghilangkan #bau #amis #melembekkan #membersihkan #mengawetkan #latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #kuis #sd https://t.co/zYWNjzQVwM</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 04:09:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>4 Tips Keuangan untuk Millenials 2021
+#tiktok #belajaronline #tipskeuangan #reksadana #saham #p2plending #indrahadiwidjaja https://t.co/dy1T6lW2s8</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 14:28:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/6ZnKw6srot
+Dalam pembuatan periskop, cermin jenis apa yang digunakan..
+A. Datar
+B. Cekung
+C. Cembung
+D. Datar dan cekung
+#latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #kuis #sd #smp #sma https://t.co/v0tqbGtzVz</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 05:41:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawaban yang benar adalah?
+https://t.co/A6Re6rBhqD
+Bagian mata yang fungsinya sama seperti diafragma pada kamera yaitu ....
+a. lensa mata
+b. kornea
+c. iris
+d. pupil
+#latihansoal #latihansoalonline #latihan #cerdascermat #belajar #belajaronline #buguru #kuis #toefl #toeic https://t.co/iJGL8G7Poc</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 09:41:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>GIVEAWAY MULU GAK ADA CAPEKNYA!
+Hadiahnya makin asik, nih. Yakin mau dilewatin gitu aja? Cussss, cek Instagram @kelaskitadotcom sekarang juga!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #giveaway https://t.co/gUVK9ayx5B</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 06:56:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>PENGALAMAN AKU BELAJAR TATAP MUKA DENGAN BU GURU DAN TEMAN2 SEKELAS DI S... https://t.co/XQYmRTzcYR via @YouTube #belajaronline #belajardirumah #belajardarirumah #sdnmandiri1cimahi #sdncibabatmandiri1cimahi</t>
+  </si>
+  <si>
+    <t>upwayyy</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 03:05:45 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -2408,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H252" sqref="H252"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K262" sqref="K262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6028,6 +6159,272 @@
         <v>462</v>
       </c>
     </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1.350776697654825E+18</v>
+      </c>
+      <c r="B259" t="s">
+        <v>516</v>
+      </c>
+      <c r="C259" t="s">
+        <v>517</v>
+      </c>
+      <c r="D259" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1.3506691785716859E+18</v>
+      </c>
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+      <c r="C260" t="s">
+        <v>520</v>
+      </c>
+      <c r="D260" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1.3504493494450501E+18</v>
+      </c>
+      <c r="B261" t="s">
+        <v>522</v>
+      </c>
+      <c r="C261" t="s">
+        <v>296</v>
+      </c>
+      <c r="D261" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1.350236738552119E+18</v>
+      </c>
+      <c r="B262" t="s">
+        <v>524</v>
+      </c>
+      <c r="C262" t="s">
+        <v>525</v>
+      </c>
+      <c r="D262" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1.3500507592120891E+18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>527</v>
+      </c>
+      <c r="C263" t="s">
+        <v>528</v>
+      </c>
+      <c r="D263" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1.3500343310964201E+18</v>
+      </c>
+      <c r="B264" t="s">
+        <v>530</v>
+      </c>
+      <c r="C264" t="s">
+        <v>380</v>
+      </c>
+      <c r="D264" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1.349970076582089E+18</v>
+      </c>
+      <c r="B265" t="s">
+        <v>532</v>
+      </c>
+      <c r="C265" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1.34959654920722E+18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>534</v>
+      </c>
+      <c r="C266" t="s">
+        <v>358</v>
+      </c>
+      <c r="D266" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1.3495693338993249E+18</v>
+      </c>
+      <c r="B267" t="s">
+        <v>536</v>
+      </c>
+      <c r="C267" t="s">
+        <v>443</v>
+      </c>
+      <c r="D267" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1.3493626232681841E+18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>538</v>
+      </c>
+      <c r="C268" t="s">
+        <v>358</v>
+      </c>
+      <c r="D268" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1.3492300254264361E+18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>540</v>
+      </c>
+      <c r="C269" t="s">
+        <v>443</v>
+      </c>
+      <c r="D269" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1.348927972346974E+18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>542</v>
+      </c>
+      <c r="C270" t="s">
+        <v>443</v>
+      </c>
+      <c r="D270" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1.348886550394806E+18</v>
+      </c>
+      <c r="B271" t="s">
+        <v>544</v>
+      </c>
+      <c r="C271" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1.3488284845885891E+18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>546</v>
+      </c>
+      <c r="C272" t="s">
+        <v>547</v>
+      </c>
+      <c r="D272" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1.3485617063566751E+18</v>
+      </c>
+      <c r="B273" t="s">
+        <v>493</v>
+      </c>
+      <c r="C273" t="s">
+        <v>494</v>
+      </c>
+      <c r="D273" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1.3485228334255721E+18</v>
+      </c>
+      <c r="B274" t="s">
+        <v>496</v>
+      </c>
+      <c r="C274" t="s">
+        <v>497</v>
+      </c>
+      <c r="D274" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1.3484984442272031E+18</v>
+      </c>
+      <c r="B275" t="s">
+        <v>499</v>
+      </c>
+      <c r="C275" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1.3484901732694789E+18</v>
+      </c>
+      <c r="B276" t="s">
+        <v>501</v>
+      </c>
+      <c r="C276" t="s">
+        <v>285</v>
+      </c>
+      <c r="D276" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1.3484675229666749E+18</v>
+      </c>
+      <c r="B277" t="s">
+        <v>503</v>
+      </c>
+      <c r="C277" t="s">
+        <v>443</v>
+      </c>
+      <c r="D277" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$277</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="549">
   <si>
     <t>id</t>
   </si>
@@ -2241,7 +2244,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2539,13 +2553,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K262" sqref="K262"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3752,2680 +3769,2039 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>1.33554E+18</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>177</v>
+      <c r="A87">
+        <v>1.3366654017746209E+18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>1.33549E+18</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>179</v>
+      <c r="A88">
+        <v>1.3366589971059671E+18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1.3366654017746209E+18</v>
+        <v>1.336612541787607E+18</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1.3366589971059671E+18</v>
+        <v>1.3365523177813609E+18</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1.336612541787607E+18</v>
+        <v>1.336520460255724E+18</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1.3365523177813609E+18</v>
+        <v>1.3376402174449249E+18</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1.336520460255724E+18</v>
+        <v>1.3375630604631611E+18</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1.3376402174449249E+18</v>
+        <v>1.3373703031654651E+18</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="D94" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1.3375630604631611E+18</v>
+        <v>1.337335960791446E+18</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1.3373703031654651E+18</v>
+        <v>1.3372655882304509E+18</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1.337335960791446E+18</v>
+        <v>1.3384047881746061E+18</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="D97" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1.3372655882304509E+18</v>
+        <v>1.338391443543532E+18</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1.3384047881746061E+18</v>
+        <v>1.3380961097391309E+18</v>
       </c>
       <c r="B99" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1.338391443543532E+18</v>
+        <v>1.338093573066039E+18</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="D100" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1.3380961097391309E+18</v>
+        <v>1.3380852526825311E+18</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1.338093573066039E+18</v>
+        <v>1.3379904116676851E+18</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="D102" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1.3380852526825311E+18</v>
+        <v>1.337990148902932E+18</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="D103" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1.3379904116676851E+18</v>
+        <v>1.337656641034932E+18</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1.337990148902932E+18</v>
+        <v>1.337655403753001E+18</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C105" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="D105" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1.337656641034932E+18</v>
+        <v>1.3376531694262889E+18</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
         <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1.337655403753001E+18</v>
+        <v>1.3394385334260449E+18</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1.3376531694262889E+18</v>
+        <v>1.339384794988257E+18</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1.3376402174449249E+18</v>
+        <v>1.339082840617599E+18</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="D109" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1.3375630604631611E+18</v>
+        <v>1.3390666690968251E+18</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="D110" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1.3394385334260449E+18</v>
+        <v>1.3388619395862981E+18</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="D111" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1.339384794988257E+18</v>
+        <v>1.338750899888374E+18</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C112" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D112" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1.339082840617599E+18</v>
+        <v>1.338721025832362E+18</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1.3390666690968251E+18</v>
+        <v>1.338720825596236E+18</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C114" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1.3388619395862981E+18</v>
+        <v>1.3387206031891251E+18</v>
       </c>
       <c r="B115" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1.338750899888374E+18</v>
+        <v>1.3387202467907169E+18</v>
       </c>
       <c r="B116" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1.338721025832362E+18</v>
+        <v>1.338720054427337E+18</v>
       </c>
       <c r="B117" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C117" t="s">
         <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1.338720825596236E+18</v>
+        <v>1.3387195954236211E+18</v>
       </c>
       <c r="B118" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1.3387206031891251E+18</v>
+        <v>1.338692370167042E+18</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="D119" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1.3387202467907169E+18</v>
+        <v>1.340882051587744E+18</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1.338720054427337E+18</v>
+        <v>1.3405487812347369E+18</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1.3387195954236211E+18</v>
+        <v>1.3405485299205161E+18</v>
       </c>
       <c r="B122" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s">
         <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1.338692370167042E+18</v>
+        <v>1.340546976627061E+18</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1.3384047881746061E+18</v>
+        <v>1.3405463890470049E+18</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="C124" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1.338391443543532E+18</v>
+        <v>1.3402839072084869E+18</v>
       </c>
       <c r="B125" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1.340882051587744E+18</v>
+        <v>1.340200372686602E+18</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C126" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D126" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1.3405487812347369E+18</v>
+        <v>1.3401651181060301E+18</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="D127" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1.3405485299205161E+18</v>
+        <v>1.3401588752200791E+18</v>
       </c>
       <c r="B128" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D128" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1.340546976627061E+18</v>
+        <v>1.3398020885581171E+18</v>
       </c>
       <c r="B129" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C129" t="s">
         <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1.3405463890470049E+18</v>
+        <v>1.3424870312728451E+18</v>
       </c>
       <c r="B130" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="D130" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1.3402839072084869E+18</v>
+        <v>1.342395076568363E+18</v>
       </c>
       <c r="B131" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C131" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D131" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1.340200372686602E+18</v>
+        <v>1.3423276943614159E+18</v>
       </c>
       <c r="B132" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>92</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1.3401651181060301E+18</v>
+        <v>1.342304066517524E+18</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C133" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1.3401588752200791E+18</v>
+        <v>1.3412958325076659E+18</v>
       </c>
       <c r="B134" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C134" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1.3398020885581171E+18</v>
+        <v>1.3412672677120251E+18</v>
       </c>
       <c r="B135" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="D135" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1.3394385334260449E+18</v>
+        <v>1.3412192956158851E+18</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="C136" t="s">
         <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1.339384794988257E+18</v>
+        <v>1.3412189007598589E+18</v>
       </c>
       <c r="B137" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1.3424870312728451E+18</v>
+        <v>1.343049138179457E+18</v>
       </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="D138" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1.342395076568363E+18</v>
+        <v>1.342997476274401E+18</v>
       </c>
       <c r="B139" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="D139" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1.3423276943614159E+18</v>
+        <v>1.342877838102442E+18</v>
       </c>
       <c r="B140" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C140" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1.342304066517524E+18</v>
+        <v>1.3428774725101161E+18</v>
       </c>
       <c r="B141" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="D141" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1.3412958325076659E+18</v>
+        <v>1.3442674276312719E+18</v>
       </c>
       <c r="B142" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="D142" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1.3412672677120251E+18</v>
+        <v>1.3441486577260989E+18</v>
       </c>
       <c r="B143" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C143" t="s">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1.3412192956158851E+18</v>
+        <v>1.3441485272832451E+18</v>
       </c>
       <c r="B144" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1.3412189007598589E+18</v>
+        <v>1.3441481908749271E+18</v>
       </c>
       <c r="B145" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1.340882051587744E+18</v>
+        <v>1.3441478754758001E+18</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="C146" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1.343049138179457E+18</v>
+        <v>1.344137499652735E+18</v>
       </c>
       <c r="B147" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="C147" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="D147" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1.342997476274401E+18</v>
+        <v>1.3441283984408901E+18</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="C148" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="D148" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1.342877838102442E+18</v>
+        <v>1.34412810373648E+18</v>
       </c>
       <c r="B149" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="D149" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1.3428774725101161E+18</v>
+        <v>1.3440965737651279E+18</v>
       </c>
       <c r="B150" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C150" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="D150" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1.3424870312728451E+18</v>
+        <v>1.3438760384897469E+18</v>
       </c>
       <c r="B151" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="C151" t="s">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="D151" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1.342395076568363E+18</v>
+        <v>1.3438748543076931E+18</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="C152" t="s">
         <v>311</v>
       </c>
       <c r="D152" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1.3423276943614159E+18</v>
+        <v>1.343859500466356E+18</v>
       </c>
       <c r="B153" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="C153" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D153" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1.342304066517524E+18</v>
+        <v>1.3438144651171551E+18</v>
       </c>
       <c r="B154" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="D154" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1.3442674276312719E+18</v>
+        <v>1.3437853066930711E+18</v>
       </c>
       <c r="B155" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="C155" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1.3441486577260989E+18</v>
+        <v>1.3437840989180639E+18</v>
       </c>
       <c r="B156" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
       </c>
       <c r="D156" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1.3441485272832451E+18</v>
+        <v>1.3437837069268831E+18</v>
       </c>
       <c r="B157" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
       </c>
       <c r="D157" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1.3441481908749271E+18</v>
+        <v>1.343783356664693E+18</v>
       </c>
       <c r="B158" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
       </c>
       <c r="D158" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1.3441478754758001E+18</v>
+        <v>1.3437453213864261E+18</v>
       </c>
       <c r="B159" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>375</v>
       </c>
       <c r="D159" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1.344137499652735E+18</v>
+        <v>1.3435225449056671E+18</v>
       </c>
       <c r="B160" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="C160" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="D160" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1.3441283984408901E+18</v>
+        <v>1.343517303497961E+18</v>
       </c>
       <c r="B161" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="C161" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="D161" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1.34412810373648E+18</v>
+        <v>1.3434877533301471E+18</v>
       </c>
       <c r="B162" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="C162" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="D162" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1.3440965737651279E+18</v>
+        <v>1.3434215437710751E+18</v>
       </c>
       <c r="B163" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="C163" t="s">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="D163" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1.3438760384897469E+18</v>
+        <v>1.345339053508415E+18</v>
       </c>
       <c r="B164" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="C164" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D164" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1.3438748543076931E+18</v>
+        <v>1.345216933696705E+18</v>
       </c>
       <c r="B165" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="C165" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="D165" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1.343859500466356E+18</v>
+        <v>1.3450035121874209E+18</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="C166" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="D166" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1.3438144651171551E+18</v>
+        <v>1.3449514581778429E+18</v>
       </c>
       <c r="B167" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="C167" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="D167" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1.3437853066930711E+18</v>
+        <v>1.344918775758348E+18</v>
       </c>
       <c r="B168" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="C168" t="s">
         <v>17</v>
       </c>
       <c r="D168" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1.3437840989180639E+18</v>
+        <v>1.344545419892724E+18</v>
       </c>
       <c r="B169" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1.3437837069268831E+18</v>
+        <v>1.3445331215012859E+18</v>
       </c>
       <c r="B170" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
       </c>
       <c r="D170" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1.343783356664693E+18</v>
+        <v>1.3445328009390159E+18</v>
       </c>
       <c r="B171" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C171" t="s">
         <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1.3437453213864261E+18</v>
+        <v>1.3445320715579149E+18</v>
       </c>
       <c r="B172" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C172" t="s">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="D172" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1.3435225449056671E+18</v>
+        <v>1.3445309598577211E+18</v>
       </c>
       <c r="B173" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="C173" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1.343517303497961E+18</v>
+        <v>1.3464000889695439E+18</v>
       </c>
       <c r="B174" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="D174" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1.3434877533301471E+18</v>
+        <v>1.3463216211418729E+18</v>
       </c>
       <c r="B175" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="C175" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D175" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1.3434215437710751E+18</v>
+        <v>1.3463206669207959E+18</v>
       </c>
       <c r="B176" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="C176" t="s">
         <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1.343049138179457E+18</v>
+        <v>1.3463203249172969E+18</v>
       </c>
       <c r="B177" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="C177" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1.342997476274401E+18</v>
+        <v>1.3463200637170161E+18</v>
       </c>
       <c r="B178" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
       <c r="C178" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="D178" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1.345339053508415E+18</v>
+        <v>1.3462482020396401E+18</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="C179" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="D179" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1.345216933696705E+18</v>
+        <v>1.3461249850525E+18</v>
       </c>
       <c r="B180" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="C180" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="D180" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1.3450035121874209E+18</v>
+        <v>1.3460883879381399E+18</v>
       </c>
       <c r="B181" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="C181" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="D181" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1.3449514581778429E+18</v>
+        <v>1.346067103321739E+18</v>
       </c>
       <c r="B182" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="C182" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="D182" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1.344918775758348E+18</v>
+        <v>1.346042820201599E+18</v>
       </c>
       <c r="B183" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>380</v>
       </c>
       <c r="D183" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1.344545419892724E+18</v>
+        <v>1.345988381856076E+18</v>
       </c>
       <c r="B184" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D184" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1.3445331215012859E+18</v>
+        <v>1.345957551767126E+18</v>
       </c>
       <c r="B185" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="D185" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1.3445328009390159E+18</v>
+        <v>1.345908839414071E+18</v>
       </c>
       <c r="B186" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="D186" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1.3445320715579149E+18</v>
+        <v>1.3454967659364559E+18</v>
       </c>
       <c r="B187" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>440</v>
       </c>
       <c r="D187" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1.3445309598577211E+18</v>
+        <v>1.3475330184291981E+18</v>
       </c>
       <c r="B188" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="D188" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1.3442674276312719E+18</v>
+        <v>1.347511192525431E+18</v>
       </c>
       <c r="B189" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="C189" t="s">
-        <v>311</v>
+        <v>446</v>
       </c>
       <c r="D189" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1.3441486577260989E+18</v>
+        <v>1.347482458879627E+18</v>
       </c>
       <c r="B190" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>449</v>
       </c>
       <c r="D190" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1.3441485272832451E+18</v>
+        <v>1.3474413390261819E+18</v>
       </c>
       <c r="B191" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
       <c r="C191" t="s">
         <v>17</v>
       </c>
       <c r="D191" t="s">
-        <v>342</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1.3441481908749271E+18</v>
+        <v>1.3474406306333609E+18</v>
       </c>
       <c r="B192" t="s">
-        <v>343</v>
+        <v>453</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
       </c>
       <c r="D192" t="s">
-        <v>344</v>
+        <v>454</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1.3441478754758001E+18</v>
+        <v>1.347440433534624E+18</v>
       </c>
       <c r="B193" t="s">
-        <v>345</v>
+        <v>455</v>
       </c>
       <c r="C193" t="s">
         <v>17</v>
       </c>
       <c r="D193" t="s">
-        <v>346</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1.344137499652735E+18</v>
+        <v>1.347439878250762E+18</v>
       </c>
       <c r="B194" t="s">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="C194" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="D194" t="s">
-        <v>349</v>
+        <v>458</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1.3441283984408901E+18</v>
+        <v>1.3474390984164019E+18</v>
       </c>
       <c r="B195" t="s">
-        <v>350</v>
+        <v>459</v>
       </c>
       <c r="C195" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="D195" t="s">
-        <v>351</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1.34412810373648E+18</v>
+        <v>1.3474383200334111E+18</v>
       </c>
       <c r="B196" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="C196" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="D196" t="s">
-        <v>353</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1.3440965737651279E+18</v>
+        <v>1.347221971742978E+18</v>
       </c>
       <c r="B197" t="s">
-        <v>354</v>
+        <v>463</v>
       </c>
       <c r="C197" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="D197" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1.3464000889695439E+18</v>
+        <v>1.34717917144157E+18</v>
       </c>
       <c r="B198" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="C198" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="D198" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1.3463216211418729E+18</v>
+        <v>1.3471698820732969E+18</v>
       </c>
       <c r="B199" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>469</v>
       </c>
       <c r="D199" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1.3463206669207959E+18</v>
+        <v>1.347017277774828E+18</v>
       </c>
       <c r="B200" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>472</v>
       </c>
       <c r="D200" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1.3463203249172969E+18</v>
+        <v>1.3470152923045151E+18</v>
       </c>
       <c r="B201" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>475</v>
       </c>
       <c r="D201" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1.3463200637170161E+18</v>
+        <v>1.3467763925626921E+18</v>
       </c>
       <c r="B202" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>380</v>
       </c>
       <c r="D202" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1.3462482020396401E+18</v>
+        <v>1.346772504921088E+18</v>
       </c>
       <c r="B203" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="C203" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="D203" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1.3461249850525E+18</v>
+        <v>1.3467296082809001E+18</v>
       </c>
       <c r="B204" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="C204" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="D204" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1.3460883879381399E+18</v>
+        <v>1.3466864253123131E+18</v>
       </c>
       <c r="B205" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="C205" t="s">
-        <v>380</v>
+        <v>17</v>
       </c>
       <c r="D205" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1.346067103321739E+18</v>
+        <v>1.3465832379177531E+18</v>
       </c>
       <c r="B206" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="C206" t="s">
-        <v>327</v>
+        <v>488</v>
       </c>
       <c r="D206" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1.346042820201599E+18</v>
+        <v>1.3486325544301079E+18</v>
       </c>
       <c r="B207" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="C207" t="s">
-        <v>380</v>
+        <v>491</v>
       </c>
       <c r="D207" t="s">
-        <v>430</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1.345988381856076E+18</v>
+        <v>1.3485617063566751E+18</v>
       </c>
       <c r="B208" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>494</v>
       </c>
       <c r="D208" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1.345957551767126E+18</v>
+        <v>1.3485228334255721E+18</v>
       </c>
       <c r="B209" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="C209" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="D209" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1.345908839414071E+18</v>
+        <v>1.3484984442272031E+18</v>
       </c>
       <c r="B210" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="C210" t="s">
-        <v>437</v>
+        <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1.3454967659364559E+18</v>
+        <v>1.3484901732694789E+18</v>
       </c>
       <c r="B211" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="C211" t="s">
-        <v>440</v>
+        <v>285</v>
       </c>
       <c r="D211" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1.345339053508415E+18</v>
+        <v>1.3484675229666749E+18</v>
       </c>
       <c r="B212" t="s">
-        <v>386</v>
+        <v>503</v>
       </c>
       <c r="C212" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="D212" t="s">
-        <v>388</v>
+        <v>504</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1.345216933696705E+18</v>
+        <v>1.3482853560560389E+18</v>
       </c>
       <c r="B213" t="s">
-        <v>389</v>
+        <v>505</v>
       </c>
       <c r="C213" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="D213" t="s">
-        <v>391</v>
+        <v>506</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1.3475330184291981E+18</v>
+        <v>1.348040030212694E+18</v>
       </c>
       <c r="B214" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="C214" t="s">
-        <v>443</v>
+        <v>327</v>
       </c>
       <c r="D214" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1.347511192525431E+18</v>
+        <v>1.347916653930025E+18</v>
       </c>
       <c r="B215" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="C215" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="D215" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1.347482458879627E+18</v>
+        <v>1.347894730722402E+18</v>
       </c>
       <c r="B216" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="C216" t="s">
-        <v>449</v>
+        <v>27</v>
       </c>
       <c r="D216" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1.3474413390261819E+18</v>
+        <v>1.3477881342394611E+18</v>
       </c>
       <c r="B217" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="D217" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1.3474406306333609E+18</v>
+        <v>1.350776697654825E+18</v>
       </c>
       <c r="B218" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>517</v>
       </c>
       <c r="D218" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1.347440433534624E+18</v>
+        <v>1.3506691785716859E+18</v>
       </c>
       <c r="B219" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>520</v>
       </c>
       <c r="D219" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1.347439878250762E+18</v>
+        <v>1.3504493494450501E+18</v>
       </c>
       <c r="B220" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="C220" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="D220" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1.3474390984164019E+18</v>
+        <v>1.350236738552119E+18</v>
       </c>
       <c r="B221" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>525</v>
       </c>
       <c r="D221" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1.3474383200334111E+18</v>
+        <v>1.3500507592120891E+18</v>
       </c>
       <c r="B222" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="C222" t="s">
-        <v>311</v>
+        <v>528</v>
       </c>
       <c r="D222" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1.347221971742978E+18</v>
+        <v>1.3500343310964201E+18</v>
       </c>
       <c r="B223" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="C223" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="D223" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1.34717917144157E+18</v>
+        <v>1.349970076582089E+18</v>
       </c>
       <c r="B224" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="C224" t="s">
-        <v>466</v>
+        <v>17</v>
       </c>
       <c r="D224" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1.3471698820732969E+18</v>
+        <v>1.34959654920722E+18</v>
       </c>
       <c r="B225" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="C225" t="s">
-        <v>469</v>
+        <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1.347017277774828E+18</v>
+        <v>1.3495693338993249E+18</v>
       </c>
       <c r="B226" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="C226" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="D226" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1.3470152923045151E+18</v>
+        <v>1.3493626232681841E+18</v>
       </c>
       <c r="B227" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="C227" t="s">
-        <v>475</v>
+        <v>358</v>
       </c>
       <c r="D227" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1.3467763925626921E+18</v>
+        <v>1.3492300254264361E+18</v>
       </c>
       <c r="B228" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="C228" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="D228" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1.346772504921088E+18</v>
+        <v>1.348927972346974E+18</v>
       </c>
       <c r="B229" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="C229" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="D229" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1.3467296082809001E+18</v>
+        <v>1.348886550394806E+18</v>
       </c>
       <c r="B230" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="C230" t="s">
-        <v>483</v>
+        <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1.3466864253123131E+18</v>
+        <v>1.3488284845885891E+18</v>
       </c>
       <c r="B231" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="C231" t="s">
-        <v>17</v>
+        <v>547</v>
       </c>
       <c r="D231" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>1.3465832379177531E+18</v>
-      </c>
-      <c r="B232" t="s">
-        <v>487</v>
-      </c>
-      <c r="C232" t="s">
-        <v>488</v>
-      </c>
-      <c r="D232" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1.3464000889695439E+18</v>
-      </c>
-      <c r="B233" t="s">
-        <v>408</v>
-      </c>
-      <c r="C233" t="s">
-        <v>409</v>
-      </c>
-      <c r="D233" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>1.3463216211418729E+18</v>
-      </c>
-      <c r="B234" t="s">
-        <v>411</v>
-      </c>
-      <c r="C234" t="s">
-        <v>17</v>
-      </c>
-      <c r="D234" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1.3463206669207959E+18</v>
-      </c>
-      <c r="B235" t="s">
-        <v>413</v>
-      </c>
-      <c r="C235" t="s">
-        <v>17</v>
-      </c>
-      <c r="D235" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1.3463203249172969E+18</v>
-      </c>
-      <c r="B236" t="s">
-        <v>415</v>
-      </c>
-      <c r="C236" t="s">
-        <v>17</v>
-      </c>
-      <c r="D236" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1.3463200637170161E+18</v>
-      </c>
-      <c r="B237" t="s">
-        <v>417</v>
-      </c>
-      <c r="C237" t="s">
-        <v>17</v>
-      </c>
-      <c r="D237" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1.3462482020396401E+18</v>
-      </c>
-      <c r="B238" t="s">
-        <v>419</v>
-      </c>
-      <c r="C238" t="s">
-        <v>420</v>
-      </c>
-      <c r="D238" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1.3486325544301079E+18</v>
-      </c>
-      <c r="B239" t="s">
-        <v>490</v>
-      </c>
-      <c r="C239" t="s">
-        <v>491</v>
-      </c>
-      <c r="D239" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1.3485617063566751E+18</v>
-      </c>
-      <c r="B240" t="s">
-        <v>493</v>
-      </c>
-      <c r="C240" t="s">
-        <v>494</v>
-      </c>
-      <c r="D240" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1.3485228334255721E+18</v>
-      </c>
-      <c r="B241" t="s">
-        <v>496</v>
-      </c>
-      <c r="C241" t="s">
-        <v>497</v>
-      </c>
-      <c r="D241" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>1.3484984442272031E+18</v>
-      </c>
-      <c r="B242" t="s">
-        <v>499</v>
-      </c>
-      <c r="C242" t="s">
-        <v>17</v>
-      </c>
-      <c r="D242" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1.3484901732694789E+18</v>
-      </c>
-      <c r="B243" t="s">
-        <v>501</v>
-      </c>
-      <c r="C243" t="s">
-        <v>285</v>
-      </c>
-      <c r="D243" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>1.3484675229666749E+18</v>
-      </c>
-      <c r="B244" t="s">
-        <v>503</v>
-      </c>
-      <c r="C244" t="s">
-        <v>443</v>
-      </c>
-      <c r="D244" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>1.3482853560560389E+18</v>
-      </c>
-      <c r="B245" t="s">
-        <v>505</v>
-      </c>
-      <c r="C245" t="s">
-        <v>423</v>
-      </c>
-      <c r="D245" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>1.348040030212694E+18</v>
-      </c>
-      <c r="B246" t="s">
-        <v>507</v>
-      </c>
-      <c r="C246" t="s">
-        <v>327</v>
-      </c>
-      <c r="D246" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>1.347916653930025E+18</v>
-      </c>
-      <c r="B247" t="s">
-        <v>509</v>
-      </c>
-      <c r="C247" t="s">
-        <v>510</v>
-      </c>
-      <c r="D247" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>1.347894730722402E+18</v>
-      </c>
-      <c r="B248" t="s">
-        <v>512</v>
-      </c>
-      <c r="C248" t="s">
-        <v>27</v>
-      </c>
-      <c r="D248" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1.3477881342394611E+18</v>
-      </c>
-      <c r="B249" t="s">
-        <v>514</v>
-      </c>
-      <c r="C249" t="s">
-        <v>443</v>
-      </c>
-      <c r="D249" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>1.3475330184291981E+18</v>
-      </c>
-      <c r="B250" t="s">
-        <v>442</v>
-      </c>
-      <c r="C250" t="s">
-        <v>443</v>
-      </c>
-      <c r="D250" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>1.347511192525431E+18</v>
-      </c>
-      <c r="B251" t="s">
-        <v>445</v>
-      </c>
-      <c r="C251" t="s">
-        <v>446</v>
-      </c>
-      <c r="D251" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1.347482458879627E+18</v>
-      </c>
-      <c r="B252" t="s">
-        <v>448</v>
-      </c>
-      <c r="C252" t="s">
-        <v>449</v>
-      </c>
-      <c r="D252" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>1.3474413390261819E+18</v>
-      </c>
-      <c r="B253" t="s">
-        <v>451</v>
-      </c>
-      <c r="C253" t="s">
-        <v>17</v>
-      </c>
-      <c r="D253" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>1.3474406306333609E+18</v>
-      </c>
-      <c r="B254" t="s">
-        <v>453</v>
-      </c>
-      <c r="C254" t="s">
-        <v>17</v>
-      </c>
-      <c r="D254" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1.347440433534624E+18</v>
-      </c>
-      <c r="B255" t="s">
-        <v>455</v>
-      </c>
-      <c r="C255" t="s">
-        <v>17</v>
-      </c>
-      <c r="D255" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1.347439878250762E+18</v>
-      </c>
-      <c r="B256" t="s">
-        <v>457</v>
-      </c>
-      <c r="C256" t="s">
-        <v>17</v>
-      </c>
-      <c r="D256" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>1.3474390984164019E+18</v>
-      </c>
-      <c r="B257" t="s">
-        <v>459</v>
-      </c>
-      <c r="C257" t="s">
-        <v>17</v>
-      </c>
-      <c r="D257" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>1.3474383200334111E+18</v>
-      </c>
-      <c r="B258" t="s">
-        <v>461</v>
-      </c>
-      <c r="C258" t="s">
-        <v>311</v>
-      </c>
-      <c r="D258" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>1.350776697654825E+18</v>
-      </c>
-      <c r="B259" t="s">
-        <v>516</v>
-      </c>
-      <c r="C259" t="s">
-        <v>517</v>
-      </c>
-      <c r="D259" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>1.3506691785716859E+18</v>
-      </c>
-      <c r="B260" t="s">
-        <v>519</v>
-      </c>
-      <c r="C260" t="s">
-        <v>520</v>
-      </c>
-      <c r="D260" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>1.3504493494450501E+18</v>
-      </c>
-      <c r="B261" t="s">
-        <v>522</v>
-      </c>
-      <c r="C261" t="s">
-        <v>296</v>
-      </c>
-      <c r="D261" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1.350236738552119E+18</v>
-      </c>
-      <c r="B262" t="s">
-        <v>524</v>
-      </c>
-      <c r="C262" t="s">
-        <v>525</v>
-      </c>
-      <c r="D262" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>1.3500507592120891E+18</v>
-      </c>
-      <c r="B263" t="s">
-        <v>527</v>
-      </c>
-      <c r="C263" t="s">
-        <v>528</v>
-      </c>
-      <c r="D263" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>1.3500343310964201E+18</v>
-      </c>
-      <c r="B264" t="s">
-        <v>530</v>
-      </c>
-      <c r="C264" t="s">
-        <v>380</v>
-      </c>
-      <c r="D264" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>1.349970076582089E+18</v>
-      </c>
-      <c r="B265" t="s">
-        <v>532</v>
-      </c>
-      <c r="C265" t="s">
-        <v>17</v>
-      </c>
-      <c r="D265" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>1.34959654920722E+18</v>
-      </c>
-      <c r="B266" t="s">
-        <v>534</v>
-      </c>
-      <c r="C266" t="s">
-        <v>358</v>
-      </c>
-      <c r="D266" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>1.3495693338993249E+18</v>
-      </c>
-      <c r="B267" t="s">
-        <v>536</v>
-      </c>
-      <c r="C267" t="s">
-        <v>443</v>
-      </c>
-      <c r="D267" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>1.3493626232681841E+18</v>
-      </c>
-      <c r="B268" t="s">
-        <v>538</v>
-      </c>
-      <c r="C268" t="s">
-        <v>358</v>
-      </c>
-      <c r="D268" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>1.3492300254264361E+18</v>
-      </c>
-      <c r="B269" t="s">
-        <v>540</v>
-      </c>
-      <c r="C269" t="s">
-        <v>443</v>
-      </c>
-      <c r="D269" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>1.348927972346974E+18</v>
-      </c>
-      <c r="B270" t="s">
-        <v>542</v>
-      </c>
-      <c r="C270" t="s">
-        <v>443</v>
-      </c>
-      <c r="D270" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>1.348886550394806E+18</v>
-      </c>
-      <c r="B271" t="s">
-        <v>544</v>
-      </c>
-      <c r="C271" t="s">
-        <v>17</v>
-      </c>
-      <c r="D271" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>1.3488284845885891E+18</v>
-      </c>
-      <c r="B272" t="s">
-        <v>546</v>
-      </c>
-      <c r="C272" t="s">
-        <v>547</v>
-      </c>
-      <c r="D272" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>1.3485617063566751E+18</v>
-      </c>
-      <c r="B273" t="s">
-        <v>493</v>
-      </c>
-      <c r="C273" t="s">
-        <v>494</v>
-      </c>
-      <c r="D273" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>1.3485228334255721E+18</v>
-      </c>
-      <c r="B274" t="s">
-        <v>496</v>
-      </c>
-      <c r="C274" t="s">
-        <v>497</v>
-      </c>
-      <c r="D274" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>1.3484984442272031E+18</v>
-      </c>
-      <c r="B275" t="s">
-        <v>499</v>
-      </c>
-      <c r="C275" t="s">
-        <v>17</v>
-      </c>
-      <c r="D275" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>1.3484901732694789E+18</v>
-      </c>
-      <c r="B276" t="s">
-        <v>501</v>
-      </c>
-      <c r="C276" t="s">
-        <v>285</v>
-      </c>
-      <c r="D276" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>1.3484675229666749E+18</v>
-      </c>
-      <c r="B277" t="s">
-        <v>503</v>
-      </c>
-      <c r="C277" t="s">
-        <v>443</v>
-      </c>
-      <c r="D277" t="s">
-        <v>504</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B231 B278:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="598">
   <si>
     <t>id</t>
   </si>
@@ -2178,6 +2178,213 @@
   </si>
   <si>
     <t>Tue Jan 12 03:05:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Semakin panas isu pelaksanaan Pengajaran Dan Pembelajaran Di Rumah (PdPR) apabila  ibu bapa mula menyuarakan kebimbangan dan merasa terbeban akan lambakan kerja sekolah anak-anak menerusi pembelajaran dalam talian.
+#belajaronline #pdpr
+https://t.co/7T7HaQr0gC https://t.co/lLwHTmJ5lR</t>
+  </si>
+  <si>
+    <t>UtusanTV</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:56:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>WAKTUNYA TRIVIA!
+Bukan dari warkop, ternyata teh berasal dari negeri seberang. Coba tebak, negara mana yang pertama kali menemukan teh?
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #trivia https://t.co/p77MWjCLqc</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 06:11:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Belajar dirumah tambah pinter ❌
+Belajar dirumah tambah bodoh ✅
+#belajaronline #daring</t>
+  </si>
+  <si>
+    <t>Hyyaa9</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 01:28:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sabar yaa murid-muridku, tetap semangat belajar di rumah yaa❤ Pemerintah Perpanjang PPKM, Berlaku 26 Januari-8 Februari https://t.co/zm2JDdDWot @kumparan 
+#dirumahaja 
+#belajaronline 
+#belajardaring</t>
+  </si>
+  <si>
+    <t>trianadewi_td</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 23:58:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bagi yang sedang mencari les privat khusus jenjang SD, SMP dan SMA
+Silahkan hubungi 087876901900
+Harga dan teknisnya terjangkau
+#bimbelsdsmpsma
+#lesprivatbogor
+#lesonline
+#belajaronline
+#bimbelonline
+#SD
+#SMP
+#SMA</t>
+  </si>
+  <si>
+    <t>heyouuun</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 16:32:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>"Selagi membuka diri dan aktif mencari, kesempatan belajar itu nyata ada". Siap untuk belajar kembali! 
+#webinar #belajar #lifelonglearner #inspigo #belajaronline #learn</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 14:10:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seperadik Sedare udah pernah swafoto di Tugu Nol KM Pulau Bangka? Kalau belum cobain deh, rasanya ah mantap.. 😎
+Tapi jangan lupa patuhi protokol kesehatan 😉
+#budayaseperadik
+#budayasaya #babelpacakjuak #melayu #budayamelayu #indonesiana #samasamabelajar #belajaronline https://t.co/QPTFpZ5gLw</t>
+  </si>
+  <si>
+    <t>budayaseperadik</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 12:36:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kabar terbaru nih, Sahabat. Pemerintah resmi memperpanjang  (PPKM) di Jawa dan Bali hingga 8 Februari 2021. 
+Yukss terus disiplin protokol kesehatan. Jangan kasih kendor yaa! 💪😷
+#ppkm #jawa #bali #workfromoffice #workfromhome #pjj #belajaronline #sekolahonline https://t.co/sJ0WqdqA3M</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 11:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kreativitas pembelajaran online saat ini..!! #viralkan #akibatcovid19 #belajaronline #dirumahaja #kreativitasanakbangsa https://t.co/OGvTkmg385</t>
+  </si>
+  <si>
+    <t>papayonks</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 06:29:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tutorial Bootstrap 5, belajar bootstrap 5 untuk membuat website.
+https://t.co/Le5SGDHymd
+#tutorial #belajar #bootstrap #framework #uiux #belajaronline #buatwebsite #bootstrap5 #bikinwebsite #jasawebsite #bandung #jawabarat #indonesia #reezh #COVID19 #pakaimasker</t>
+  </si>
+  <si>
+    <t>reezhdesign</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 12:30:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>#Kamis #Malam #InstagramLive mulai 21.30 WIB
+Pintar #SOSIALISASI di #SosialMedia
+Cek👉 https://t.co/CZwfHKpg4N
+#belajarsosial 
+#belajarsosialmedia 
+#bersosialisasi
+#belajaronline
+#belajargratis
+#instagramindonesia 
+#pelatihanonline
+#ngobrolbareng
+#belajarbareng
+#diskusibareng https://t.co/BYvSJvWJ1v</t>
+  </si>
+  <si>
+    <t>zeembry</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 10:41:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seperadik Sedare dimusim hujan seperti sekarang, mie kuah ikan memang menjadi pilihan yang pas menemani suasana dingin apalagi dimakan saat masih hangat
+#budayaseperadik
+#budayasaya #babelpacakjuak #melayu #budayamelayu #indonesiana #samasamabelajar #belajaronline #dirumahaja https://t.co/GLXqRnpcFO</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 10:40:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kami faham belajar secara dalam talian dari rumah boleh jadi agak mencabar bagi sesetengah pelajar. Kalau nak dibandingkan suasana di kampus memang jauh lebih kondusif, berbeza rasanya dengan belajar dari rumah.
+#youthpower 
+#platformorangmuda 
+#belajaronline https://t.co/EX7DkIxizZ</t>
+  </si>
+  <si>
+    <t>youth__power</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 09:06:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>GIVEAWAY MULU GAK ADA CAPEKNYA!
+Hadiahnya makin asik, nih. Yakin mau dilewatin gitu aja? Cussss, cek Instagram @kelaskitadotcom sekarang juga!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #giveaway https://t.co/bkLpSj3D03</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 05:24:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Meningkatnya jumlah warga Tubaba yang terinfeksi virus Covid-19, Dinas Pendidikan setempat mengelaurkan kebijakan larangan belajar tatap muka.
+#sekolah #sekolahonline #belajar #belajaronline #online #onlinelearning #kbm #tubaba #lampung #lampostco
+https://t.co/MuODH6pU42</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 12:59:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Kabupaten Pesawaran, mengeluarkan surat edaran pembatalan KBM tatap muka yang sebelumnya direncanakan akan digelar pada 3 Februari 2021.
+#sekolah #sekolahonline #belajar #belajaronline #online #onlinelearning #kbm #lampung #lampostco
+https://t.co/51aN51tmDM</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 12:43:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bila mak teringin nak jadi cikgu... Dia tubuhkan terus Sekolah Mama 👩‍🏫  
+Boleh jadikan inspirasi ibu-ibu lain untk luangkan masa lebih lagi dengan anak-anak 🥰🥰
+Sumber : Siti Nor Azura 
+#SinaranWanita #sekolahdirumah #cikgu #belajaronline #ibuanak https://t.co/llYPmf7vY2</t>
+  </si>
+  <si>
+    <t>SinaranW</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 07:00:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dapet salam dari Amerika nih, hehe.
+Mba Oprah aku padamuuuu…
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #quotes https://t.co/3UJLTn6MDm</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:34:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Banyak banget nih grup WA,
+udah kayak orang paling sibuk sejagad raya aja
+:v :v
+#BelajarOnline
+#GrupWA
+#Tweet</t>
+  </si>
+  <si>
+    <t>FabianFzls</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 15:25:19 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -2553,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J224" sqref="J224"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5798,6 +6005,300 @@
         <v>548</v>
       </c>
     </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1.3525556942564969E+18</v>
+      </c>
+      <c r="B232" t="s">
+        <v>549</v>
+      </c>
+      <c r="C232" t="s">
+        <v>550</v>
+      </c>
+      <c r="D232" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1.3524991696010491E+18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>552</v>
+      </c>
+      <c r="C233" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1.3524278812221811E+18</v>
+      </c>
+      <c r="B234" t="s">
+        <v>554</v>
+      </c>
+      <c r="C234" t="s">
+        <v>555</v>
+      </c>
+      <c r="D234" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1.3524053574573299E+18</v>
+      </c>
+      <c r="B235" t="s">
+        <v>557</v>
+      </c>
+      <c r="C235" t="s">
+        <v>558</v>
+      </c>
+      <c r="D235" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1.3522928891669791E+18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>560</v>
+      </c>
+      <c r="C236" t="s">
+        <v>561</v>
+      </c>
+      <c r="D236" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1.3522573633491599E+18</v>
+      </c>
+      <c r="B237" t="s">
+        <v>563</v>
+      </c>
+      <c r="C237" t="s">
+        <v>296</v>
+      </c>
+      <c r="D237" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1.3522335456164091E+18</v>
+      </c>
+      <c r="B238" t="s">
+        <v>565</v>
+      </c>
+      <c r="C238" t="s">
+        <v>566</v>
+      </c>
+      <c r="D238" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1.3522093252010601E+18</v>
+      </c>
+      <c r="B239" t="s">
+        <v>568</v>
+      </c>
+      <c r="C239" t="s">
+        <v>483</v>
+      </c>
+      <c r="D239" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1.3521412114406111E+18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>570</v>
+      </c>
+      <c r="C240" t="s">
+        <v>571</v>
+      </c>
+      <c r="D240" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1.3518695884226189E+18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>573</v>
+      </c>
+      <c r="C241" t="s">
+        <v>574</v>
+      </c>
+      <c r="D241" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1.35184228506803E+18</v>
+      </c>
+      <c r="B242" t="s">
+        <v>576</v>
+      </c>
+      <c r="C242" t="s">
+        <v>577</v>
+      </c>
+      <c r="D242" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1.3518420678072891E+18</v>
+      </c>
+      <c r="B243" t="s">
+        <v>579</v>
+      </c>
+      <c r="C243" t="s">
+        <v>566</v>
+      </c>
+      <c r="D243" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1.3518184284582989E+18</v>
+      </c>
+      <c r="B244" t="s">
+        <v>581</v>
+      </c>
+      <c r="C244" t="s">
+        <v>582</v>
+      </c>
+      <c r="D244" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1.351762491747959E+18</v>
+      </c>
+      <c r="B245" t="s">
+        <v>584</v>
+      </c>
+      <c r="C245" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1.351514522087903E+18</v>
+      </c>
+      <c r="B246" t="s">
+        <v>586</v>
+      </c>
+      <c r="C246" t="s">
+        <v>380</v>
+      </c>
+      <c r="D246" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1.351510488778068E+18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>588</v>
+      </c>
+      <c r="C247" t="s">
+        <v>380</v>
+      </c>
+      <c r="D247" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1.351424150196384E+18</v>
+      </c>
+      <c r="B248" t="s">
+        <v>590</v>
+      </c>
+      <c r="C248" t="s">
+        <v>591</v>
+      </c>
+      <c r="D248" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1.3514178180974551E+18</v>
+      </c>
+      <c r="B249" t="s">
+        <v>593</v>
+      </c>
+      <c r="C249" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1.350826542792802E+18</v>
+      </c>
+      <c r="B250" t="s">
+        <v>595</v>
+      </c>
+      <c r="C250" t="s">
+        <v>596</v>
+      </c>
+      <c r="D250" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1.350776697654825E+18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>516</v>
+      </c>
+      <c r="C251" t="s">
+        <v>517</v>
+      </c>
+      <c r="D251" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1.3506691785716859E+18</v>
+      </c>
+      <c r="B252" t="s">
+        <v>519</v>
+      </c>
+      <c r="C252" t="s">
+        <v>520</v>
+      </c>
+      <c r="D252" t="s">
+        <v>521</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B231 B278:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- 1. #belajaronline.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="646">
   <si>
     <t>id</t>
   </si>
@@ -2385,6 +2385,206 @@
   </si>
   <si>
     <t>Sun Jan 17 15:25:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kelas Pintar di desain sedemikian rupa supaya proses belajar lebih mudah. Kali ini kita akan bahas menu tugas yang tersedia di dashboard Kelas Pintar kamu. Simak ya!
+#belajardirumah #belajaronline #pjj #pjjonlineclass #kelaspintarindonesia https://t.co/RnAjL170X4</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 13:11:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat Hari Jadi ke-18 Bangka Selatan ❤️
+#budayaseperadik
+#budayasaya #babelpacakjuak #melayu #budayamelayu #indonesiana #samasamabelajar #belajaronline #dirumahaja #wonderfullindonesia https://t.co/RCTBEQ1DhD</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 10:27:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menyenangkan bukan dengan menggunakan ide-ide tersebut? Yang menciptakan kegiatan belajar menjadi seru dan efektif.
+Gunakan LISA sekarang dan rasakan kenyamanan belajar mengajar dirumah!
+#ITsSimple #sekolah #SekolahOnline #pjj #BelajarOnline #belajar #LISA https://t.co/3wCu9URzch</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 10:11:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pendaftaran:
+https://t.co/Q7xGN6LpCd
+Sampai jumpa di hari Minggu~
+#belajarbahasarusia #bahasarusia #beruangid #workshop #belajar #workshopbahasa #workshoponline #webinar #belajarbahasaasing #kelasdaring #bahasaasing #belajaronline #lesonline #pelatihanbahasa #kelasbahasa</t>
+  </si>
+  <si>
+    <t>beruangidcom</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 09:16:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pendaftaran:
+https://t.co/EBum860Pzy
+Sampai jumpa di hari Sabtu dan Minggu~
+#belajarbahasarusia #bahasarusia #beruangid #workshop #belajar #workshopbahasa #workshoponline #webinar #belajarbahasaasing #kelasdaring #bahasaasing #belajaronline #lesonline #kelasbahasa</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 09:15:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pengen bisnismu cepat laku, tapi masih bingung gimana caranya?
+Simak obrolan Kelaspedia bersama Bernad Satriani di Skillers Talk. 
+#kelaspedia #kelasonline #belajaronline #belajardarirumah #selflearning #talkshow #digitalmarketing #bigdata #dataanalyst #skillerstalk https://t.co/kF3u3RUCAH</t>
+  </si>
+  <si>
+    <t>kelaspedia_id</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 15:25:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Momen ketika sekolah online
+Guru : ibu kasih tugas banyak aja supaya kalian ga bisa santai2 dirumah
+Ortu : santainya main hp teruss,ga bantuin ortu
+SERING TERJADI
+#belajaronline</t>
+  </si>
+  <si>
+    <t>NabilaArdina</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 14:09:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seperadik Sedare pernah keliser? gimana cara kalian mengatasinya? bagi tip dong
+#budayaseperadik
+#budayasaya #babelpacakjuak #melayu #budayamelayu #indonesiana #samasamabelajar #belajaronline #dirumahaja #wonderfullindonesia https://t.co/wtvgZQv579</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 11:06:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI Jawaban Tema 6 Kelas 3 SD Halaman 162 - 168, Contoh Kegiatan yang Termasuk Pemborosan Energi #belajar #BelajardariRumah #BelajardiRumah #BelajarOnline #BelajarDaring
+Download aplikasi Tribunnews update berita terbaru di: https://t.co/vVWLpleQXU
+https://t.co/BsFlF4vpNr</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:13:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalian harus tau kalo coklat bisa buang patah hati. Harus banget tau beneran deh!
+Cek Instagram @kelaskitadotcom buat tau selengkapnya!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #taugaksih https://t.co/D3NBfnSbNE</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:06:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kira-kira apa aja, sih keseruan yang udah disiapin Mikha Tambayong buat Teman Kelaskita?  Penasaran kan? Gak sabar, dong? Nungguin, ya? 
+Stay tune terus di @kelaskitadotcom!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/s0mhSZLtlW</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 07:18:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Apaan nih?
+Seperadik Sedare bisa tebak?
+Mimin kasih bocoran deh, ini ada hubungannya dengan nasi hangat, dijamin bikin nagih 😁
+#budayaseperadik
+#budayasaya #babelpacakjuak #melayu #budayamelayu #indonesiana #samasamabelajar #belajaronline #dirumahaja #wonderfullindonesia https://t.co/6gD0VEbtwR</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 13:15:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalau udah jalanin prosesnya, tinggal nikmati hasilnya. Jangan lupa bersyukur!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #PixarSoul https://t.co/1r70KFSCYF</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 06:33:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dua hal yang prosesnya emang gak gampang, tapi WAJIB banget lop~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #PixarSoul https://t.co/eFpUSGfoCP</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 06:31:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Anaknya hobi banget emang si Joe ini. Mantap Joe!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #PixarSoul https://t.co/0JKpF6K5aD</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 06:28:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bun, hidup berjalan seperti bahahahahaaha… canda.
+Udah, dari pada ngeluhin hidup mulu mending simak, nih tips menikmati hidup ala film Soul dari Dinsey Pixar!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #pixarsoul https://t.co/TVU3EABLSN</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 06:26:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Assalamualaikum, Halo bunda 😍 
+Bunda lagi cari Bimbingan Belajar untuk Ananda yang belajar dari rumah?
+Bunda resah harus menggunakan cara apa untuk mengajar Ananda dengan tepat?
+#virtual #bimbinganonline #bimbingan_belajar #belajaronline #belajardaring #lesprivateonline https://t.co/xa1fyx9s6d</t>
+  </si>
+  <si>
+    <t>FathiyahIndah</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 02:44:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seperadik Sedare masih hafal lagu Yok Miak??
+Yuk sambung potongan lagunya 😁
+#budayaseperadik
+#budayasaya #babelpacakjuak #melayu #budayamelayu #indonesiana #samasamabelajar #belajaronline #dirumahaja #wonderfullindonesia https://t.co/SFAzYbctkj</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 02:01:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>𝙲𝚘𝚖𝚒𝚗𝚐 𝚜𝚘𝚘𝚗 𝚍𝚒 𝚌𝚑𝚊𝚗𝚗𝚎𝚕 𝚈𝚃: 𝚁𝚞𝚊𝚗𝚐 𝙿𝙿𝙺𝚗 𝙱𝚞 𝚃𝚒𝚠𝚒 ✌🏻😊😊
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+#asnkinibeda #bdr #pjjonline #spenlansu #smpn9sumedang #bdrppkn #belajaronline #fujifilmxa7 #cpns2019 #guruppknindonesia @ Smp Negeri 9 Sumedang https://t.co/QMDtT3CYXZ</t>
+  </si>
+  <si>
+    <t>pratiwi_wg</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 01:53:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wow plot twist!🤣 patutlah cikgu tak tegur bila anak murid tak jawab hahaha tapi cikgu-cikgu kat Malaysia tak macam ni. Betul tak?
+📹 : ustazelyasismail
+#KoolFM #sendakool #funnytiktok #onlinelearning #plottwist #kelasonline #belajaronline https://t.co/sHUtYgtacY</t>
+  </si>
+  <si>
+    <t>koolfmmy</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 15:01:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seperadik Sedare ada yang tau nasihat dari pantun ini? 😁 
+Beli pantun mimin dong 😉
+#budayaseperadik
+#budayasaya #babelpacakjuak #melayu #budayamelayu #indonesiana #samasamabelajar #belajaronline #dirumahaja #wonderfullindonesia https://t.co/grixHKQtAD</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 14:24:52 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -2760,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H250" sqref="H250"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H249" sqref="H249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6299,6 +6499,342 @@
         <v>521</v>
       </c>
     </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1.3547791860831601E+18</v>
+      </c>
+      <c r="B253" t="s">
+        <v>598</v>
+      </c>
+      <c r="C253" t="s">
+        <v>311</v>
+      </c>
+      <c r="D253" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1.3543754031886131E+18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>600</v>
+      </c>
+      <c r="C254" t="s">
+        <v>566</v>
+      </c>
+      <c r="D254" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1.3543714316483011E+18</v>
+      </c>
+      <c r="B255" t="s">
+        <v>602</v>
+      </c>
+      <c r="C255" t="s">
+        <v>166</v>
+      </c>
+      <c r="D255" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1.3543576787268119E+18</v>
+      </c>
+      <c r="B256" t="s">
+        <v>604</v>
+      </c>
+      <c r="C256" t="s">
+        <v>605</v>
+      </c>
+      <c r="D256" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1.3543572580296499E+18</v>
+      </c>
+      <c r="B257" t="s">
+        <v>607</v>
+      </c>
+      <c r="C257" t="s">
+        <v>605</v>
+      </c>
+      <c r="D257" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1.3540880672216189E+18</v>
+      </c>
+      <c r="B258" t="s">
+        <v>609</v>
+      </c>
+      <c r="C258" t="s">
+        <v>610</v>
+      </c>
+      <c r="D258" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1.354069000641257E+18</v>
+      </c>
+      <c r="B259" t="s">
+        <v>612</v>
+      </c>
+      <c r="C259" t="s">
+        <v>613</v>
+      </c>
+      <c r="D259" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1.354022851636982E+18</v>
+      </c>
+      <c r="B260" t="s">
+        <v>615</v>
+      </c>
+      <c r="C260" t="s">
+        <v>566</v>
+      </c>
+      <c r="D260" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1.3539792635280471E+18</v>
+      </c>
+      <c r="B261" t="s">
+        <v>617</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1.3539777034650089E+18</v>
+      </c>
+      <c r="B262" t="s">
+        <v>619</v>
+      </c>
+      <c r="C262" t="s">
+        <v>17</v>
+      </c>
+      <c r="D262" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1.3539654845053261E+18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>621</v>
+      </c>
+      <c r="C263" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1.3536930278485161E+18</v>
+      </c>
+      <c r="B264" t="s">
+        <v>623</v>
+      </c>
+      <c r="C264" t="s">
+        <v>566</v>
+      </c>
+      <c r="D264" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1.3535916966934531E+18</v>
+      </c>
+      <c r="B265" t="s">
+        <v>625</v>
+      </c>
+      <c r="C265" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1.3535913685310999E+18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>627</v>
+      </c>
+      <c r="C266" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1.353590598092034E+18</v>
+      </c>
+      <c r="B267" t="s">
+        <v>629</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1.3535901374189901E+18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>631</v>
+      </c>
+      <c r="C268" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1.3531717014675169E+18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>633</v>
+      </c>
+      <c r="C269" t="s">
+        <v>634</v>
+      </c>
+      <c r="D269" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1.3531610706349179E+18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>636</v>
+      </c>
+      <c r="C270" t="s">
+        <v>566</v>
+      </c>
+      <c r="D270" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1.353158850518594E+18</v>
+      </c>
+      <c r="B271" t="s">
+        <v>638</v>
+      </c>
+      <c r="C271" t="s">
+        <v>639</v>
+      </c>
+      <c r="D271" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1.352994787964703E+18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>641</v>
+      </c>
+      <c r="C272" t="s">
+        <v>642</v>
+      </c>
+      <c r="D272" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1.3526232695521651E+18</v>
+      </c>
+      <c r="B273" t="s">
+        <v>644</v>
+      </c>
+      <c r="C273" t="s">
+        <v>566</v>
+      </c>
+      <c r="D273" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1.3525556942564969E+18</v>
+      </c>
+      <c r="B274" t="s">
+        <v>549</v>
+      </c>
+      <c r="C274" t="s">
+        <v>550</v>
+      </c>
+      <c r="D274" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1.3524991696010491E+18</v>
+      </c>
+      <c r="B275" t="s">
+        <v>552</v>
+      </c>
+      <c r="C275" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1.3524278812221811E+18</v>
+      </c>
+      <c r="B276" t="s">
+        <v>554</v>
+      </c>
+      <c r="C276" t="s">
+        <v>555</v>
+      </c>
+      <c r="D276" t="s">
+        <v>556</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B231 B278:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
